--- a/pendulum/part_obs_pendulum/excel_sheets/part_obs_grav.xlsx
+++ b/pendulum/part_obs_pendulum/excel_sheets/part_obs_grav.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/Work Info/Research Assistant/deap_experiments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/Work Info/Research Assistant/deap_experiments/pendulum/part_obs_pendulum/excel_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AD4347-9225-0045-92D8-63923A3A391E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938CCAF2-A75B-8C47-8749-6739345230DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
+    <t>Trained at g=9.81 and tested at different grav</t>
+  </si>
+  <si>
+    <t>add(ang_vel(max(y3, y2), y1, atan(conditional(y1, y3), y1), x2), y2)</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>add(ang_vel(max(y3, y2), y1, atan(conditional(y1, y3), y1), x2), y2)</t>
-  </si>
-  <si>
     <t>ang_vel(y1, y2, x1, protectedDiv(ang_vel(add(max(y1, x1), sub(x2, x3)), x1, y3, x3), limit(y1, x3, limit(y1, x1, ang_vel(x3, x1, x3, x2)))))</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t>protectedDiv(asin(y2, y1), sub(asin(sub(asin(y2, y1), x1), asin(x3, x3)), x1))</t>
   </si>
   <si>
+    <t>Trained at g=12 and tested at different grav</t>
+  </si>
+  <si>
     <t>ang_vel(atan(sin(y1), y3), atan(x2, x3), sin(x3), atan(limit(protectedDiv(y1, x2), cos(x1), max(y2, x2)), y2))</t>
   </si>
   <si>
@@ -55,6 +61,9 @@
     <t>max(asin(conditional(x2, y1), sub(y2, y1)), ang_vel(asin(y1, x3), asin(atan(x1, y3), y1), tan(x3), conditional(ang_vel(acos(x3, x2), acos(x2, x1), cos(x2), tan(add(y1, limit(add(limit(y2, x2, x3), x2), limit(x1, x2, x3), asin(conditional(y3, x2), sub(x1, y1)))))), y3)))</t>
   </si>
   <si>
+    <t>Trained at g=13 and tested at different grav</t>
+  </si>
+  <si>
     <t>sub(atan(conditional(conditional(x2, tan(y1)), y2), x2), limit(sin(conditional(asin(x2, x1), y1)), ang_vel(x1, x2, x1, ang_vel(x1, x2, y2, ang_vel(x1, x2, y2, y3))), y1))</t>
   </si>
   <si>
@@ -73,6 +82,9 @@
     <t>angle</t>
   </si>
   <si>
+    <t>Trained at g=14 and tested at different grav</t>
+  </si>
+  <si>
     <t>ang_vel(limit(y3, x2, sin(x3)), conditional(x3, ang_vel(limit(y3, x2, sin(x3)), y3, x1, y3)), cos(max(y3, y1)), max(x3, y2))</t>
   </si>
   <si>
@@ -88,6 +100,9 @@
     <t>ang_vel(add(y1, x3), add(x1, y1), y1, sub(asin(sin(x3), conditional(x1, x1)), y3))</t>
   </si>
   <si>
+    <t>Trained at g=15 and tested at different grav</t>
+  </si>
+  <si>
     <t>limit(tan(conditional(y1, x2)), sub(acos(x3, y2), ang_vel(limit(x2, x2, y2), y1, y2, y2)), ang_vel(tan(x3), asin(x3, x3), tan(limit(limit(atan(y2, max(x2, y2)), add(max(y2, y3), add(asin(atan(y1, x1), sin(y1)), y1)), y1), y2, y2)), acos(x1, y3)))</t>
   </si>
   <si>
@@ -113,21 +128,6 @@
   </si>
   <si>
     <t>grav 12 and onwards makes it more sparse with solving outside of grav trained in</t>
-  </si>
-  <si>
-    <t>Trained at g=9.81 and tested at different grav</t>
-  </si>
-  <si>
-    <t>Trained at g=12 and tested at different grav</t>
-  </si>
-  <si>
-    <t>Trained at g=13 and tested at different grav</t>
-  </si>
-  <si>
-    <t>Trained at g=14 and tested at different grav</t>
-  </si>
-  <si>
-    <t>Trained at g=15 and tested at different grav</t>
   </si>
 </sst>
 </file>
@@ -512,15 +512,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="91" workbookViewId="0">
+      <selection activeCell="D104" sqref="A88:D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -528,31 +528,31 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -876,39 +876,39 @@
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K18" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1199,39 +1199,39 @@
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1480,7 +1480,7 @@
         <v>-801.88</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -1525,39 +1525,39 @@
     </row>
     <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G50" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H50" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I50" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K50" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -1846,39 +1846,39 @@
     </row>
     <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C66" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E66" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H66" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I66" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K66" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -2206,27 +2206,27 @@
     </row>
     <row r="83" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/pendulum/part_obs_pendulum/excel_sheets/part_obs_grav.xlsx
+++ b/pendulum/part_obs_pendulum/excel_sheets/part_obs_grav.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/Work Info/Research Assistant/deap_experiments/pendulum/part_obs_pendulum/excel_sheets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938CCAF2-A75B-8C47-8749-6739345230DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="part_obs_grav" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="part_obs_grav"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -133,21 +127,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -159,24 +159,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFdae3f3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFa9d18e"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFd9e1f2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -188,26 +207,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+  <cellXfs count="15">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -218,10 +270,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -248,116 +300,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -369,1868 +387,2517 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="91" workbookViewId="0">
-      <selection activeCell="D104" sqref="A88:D104"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>-893.44</v>
       </c>
-      <c r="D3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="8">
         <v>-685.42</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3">
+      <c r="E3" s="9"/>
+      <c r="F3" s="8">
         <v>-210.71</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3">
+      <c r="G3" s="9"/>
+      <c r="H3" s="8">
         <v>-328.07</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3">
+      <c r="I3" s="9"/>
+      <c r="J3" s="8">
         <v>-183.3</v>
       </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="K3" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>-829.94</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="3"/>
+      <c r="D4" s="8">
         <v>-651.64</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4">
+      <c r="E4" s="9"/>
+      <c r="F4" s="8">
         <v>-340.56</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4">
+      <c r="G4" s="9"/>
+      <c r="H4" s="8">
         <v>-1220.42</v>
       </c>
-      <c r="J4">
+      <c r="I4" s="3"/>
+      <c r="J4" s="8">
         <v>-220.07</v>
       </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="K4" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>-1023.83</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="3"/>
+      <c r="D5" s="8">
         <v>-771.97</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5">
-        <v>-284.97000000000003</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5">
+      <c r="E5" s="9"/>
+      <c r="F5" s="8">
+        <v>-284.97</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="8">
         <v>-1669.2</v>
       </c>
-      <c r="J5">
+      <c r="I5" s="3"/>
+      <c r="J5" s="8">
         <v>-243.08</v>
       </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="K5" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>-1082.08</v>
       </c>
-      <c r="D6">
+      <c r="C6" s="3"/>
+      <c r="D6" s="8">
         <v>-353.72</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6">
+      <c r="E6" s="9"/>
+      <c r="F6" s="8">
         <v>-349.05</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6">
+      <c r="G6" s="9"/>
+      <c r="H6" s="8">
         <v>-1836.89</v>
       </c>
-      <c r="J6">
+      <c r="I6" s="3"/>
+      <c r="J6" s="8">
         <v>-216.7</v>
       </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="K6" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>-1531.92</v>
       </c>
-      <c r="D7">
+      <c r="C7" s="3"/>
+      <c r="D7" s="8">
         <v>-402.33</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7">
-        <v>-268.89999999999998</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7">
+      <c r="E7" s="9"/>
+      <c r="F7" s="8">
+        <v>-268.9</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="8">
         <v>-1746.87</v>
       </c>
-      <c r="J7">
+      <c r="I7" s="3"/>
+      <c r="J7" s="8">
         <v>-197.34</v>
       </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="K7" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>-1538.61</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="3"/>
+      <c r="D8" s="7">
         <v>-278</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8">
+      <c r="E8" s="9"/>
+      <c r="F8" s="8">
         <v>-331.78</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8">
+      <c r="G8" s="9"/>
+      <c r="H8" s="8">
         <v>-1373.73</v>
       </c>
-      <c r="J8">
+      <c r="I8" s="3"/>
+      <c r="J8" s="8">
         <v>-252.95</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="K8" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>-1228.03</v>
       </c>
-      <c r="D9">
+      <c r="C9" s="3"/>
+      <c r="D9" s="8">
         <v>-241.66</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9">
+      <c r="E9" s="9"/>
+      <c r="F9" s="8">
         <v>-384.89</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9">
+      <c r="G9" s="9"/>
+      <c r="H9" s="8">
         <v>-1092.8</v>
       </c>
-      <c r="J9">
-        <v>-265.77999999999997</v>
-      </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="I9" s="3"/>
+      <c r="J9" s="8">
+        <v>-265.78</v>
+      </c>
+      <c r="K9" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>-1048.3900000000001</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="8">
+        <v>-1048.39</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="8">
         <v>-234.61</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10">
+      <c r="E10" s="9"/>
+      <c r="F10" s="8">
         <v>-435.51</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10">
+      <c r="G10" s="9"/>
+      <c r="H10" s="8">
         <v>-597.84</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10">
+      <c r="I10" s="9"/>
+      <c r="J10" s="8">
         <v>-274.31</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="K10" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="8">
         <v>9.81</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>-290.83</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11">
+      <c r="C11" s="9"/>
+      <c r="D11" s="8">
         <v>-276.55</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11">
+      <c r="E11" s="9"/>
+      <c r="F11" s="8">
         <v>-405.51</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11">
+      <c r="G11" s="9"/>
+      <c r="H11" s="8">
         <v>-416.35</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11">
+      <c r="I11" s="9"/>
+      <c r="J11" s="8">
         <v>-323.98</v>
       </c>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="K11" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>-572.11</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12">
+      <c r="C12" s="9"/>
+      <c r="D12" s="8">
         <v>-274.44</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12">
-        <v>-549.45000000000005</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12">
+      <c r="E12" s="9"/>
+      <c r="F12" s="8">
+        <v>-549.45</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8">
         <v>-500.25</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12">
+      <c r="I12" s="9"/>
+      <c r="J12" s="8">
         <v>-362.31</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="K12" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>-1671.72</v>
       </c>
-      <c r="D13">
+      <c r="C13" s="3"/>
+      <c r="D13" s="8">
         <v>-390.41</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13">
+      <c r="E13" s="9"/>
+      <c r="F13" s="8">
         <v>-698.52</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13">
+      <c r="G13" s="9"/>
+      <c r="H13" s="8">
         <v>-1431.95</v>
       </c>
-      <c r="J13">
+      <c r="I13" s="3"/>
+      <c r="J13" s="8">
         <v>-485.54</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="K13" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <v>-2018.49</v>
       </c>
-      <c r="D14">
+      <c r="C14" s="3"/>
+      <c r="D14" s="8">
         <v>-1852.4</v>
       </c>
-      <c r="F14">
+      <c r="E14" s="3"/>
+      <c r="F14" s="8">
         <v>-1007.34</v>
       </c>
-      <c r="H14">
+      <c r="G14" s="3"/>
+      <c r="H14" s="8">
         <v>-1907.33</v>
       </c>
-      <c r="J14">
+      <c r="I14" s="3"/>
+      <c r="J14" s="8">
         <v>-1341.76</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="K14" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="8">
         <v>-2258.38</v>
       </c>
-      <c r="D15">
-        <v>-2147.0100000000002</v>
-      </c>
-      <c r="F15">
+      <c r="C15" s="3"/>
+      <c r="D15" s="8">
+        <v>-2147.01</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="8">
         <v>-1551.84</v>
       </c>
-      <c r="H15">
-        <v>-2165.2800000000002</v>
-      </c>
-      <c r="J15">
+      <c r="G15" s="3"/>
+      <c r="H15" s="8">
+        <v>-2165.28</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="8">
         <v>-1944.99</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="K15" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="8">
         <v>-2412.64</v>
       </c>
-      <c r="D16">
+      <c r="C16" s="3"/>
+      <c r="D16" s="8">
         <v>-2250.64</v>
       </c>
-      <c r="F16">
-        <v>-2542.1799999999998</v>
-      </c>
-      <c r="H16">
+      <c r="E16" s="3"/>
+      <c r="F16" s="8">
+        <v>-2542.18</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="8">
         <v>-2329.5</v>
       </c>
-      <c r="J16">
+      <c r="I16" s="3"/>
+      <c r="J16" s="8">
         <v>-2148.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="7">
         <v>1</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="8">
         <v>-1101.28</v>
       </c>
-      <c r="D19">
+      <c r="C19" s="3"/>
+      <c r="D19" s="8">
         <v>-1327.76</v>
       </c>
-      <c r="F19">
+      <c r="E19" s="3"/>
+      <c r="F19" s="8">
         <v>-1439.69</v>
       </c>
-      <c r="H19">
+      <c r="G19" s="3"/>
+      <c r="H19" s="8">
         <v>-3045.83</v>
       </c>
-      <c r="J19">
+      <c r="I19" s="3"/>
+      <c r="J19" s="8">
         <v>-3391.54</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="K19" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="7">
         <v>2</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="8">
         <v>-1548.86</v>
       </c>
-      <c r="D20">
+      <c r="C20" s="3"/>
+      <c r="D20" s="8">
         <v>-1248.28</v>
       </c>
-      <c r="F20">
+      <c r="E20" s="3"/>
+      <c r="F20" s="8">
         <v>-1354.06</v>
       </c>
-      <c r="H20">
+      <c r="G20" s="3"/>
+      <c r="H20" s="8">
         <v>-2751.79</v>
       </c>
-      <c r="J20">
+      <c r="I20" s="3"/>
+      <c r="J20" s="8">
         <v>-3434.09</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="K20" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="7">
         <v>3</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="8">
         <v>-1488.99</v>
       </c>
-      <c r="D21">
+      <c r="C21" s="3"/>
+      <c r="D21" s="8">
         <v>-1448.11</v>
       </c>
-      <c r="F21">
+      <c r="E21" s="3"/>
+      <c r="F21" s="8">
         <v>-1557.56</v>
       </c>
-      <c r="H21">
+      <c r="G21" s="3"/>
+      <c r="H21" s="8">
         <v>-2645.97</v>
       </c>
-      <c r="J21">
+      <c r="I21" s="3"/>
+      <c r="J21" s="8">
         <v>-3332.98</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="K21" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="7">
         <v>4</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="8">
         <v>-1582.02</v>
       </c>
-      <c r="D22">
+      <c r="C22" s="3"/>
+      <c r="D22" s="8">
         <v>-1142.79</v>
       </c>
-      <c r="F22">
+      <c r="E22" s="3"/>
+      <c r="F22" s="8">
         <v>-1850.23</v>
       </c>
-      <c r="H22">
+      <c r="G22" s="3"/>
+      <c r="H22" s="8">
         <v>-2693.18</v>
       </c>
-      <c r="J22">
+      <c r="I22" s="3"/>
+      <c r="J22" s="8">
         <v>-3269.84</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="K22" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="7">
         <v>5</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="8">
         <v>-887.43</v>
       </c>
-      <c r="D23">
-        <v>-1165.6199999999999</v>
-      </c>
-      <c r="F23">
-        <v>-2183.8200000000002</v>
-      </c>
-      <c r="H23">
+      <c r="C23" s="3"/>
+      <c r="D23" s="8">
+        <v>-1165.62</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="8">
+        <v>-2183.82</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="8">
         <v>-2499.11</v>
       </c>
-      <c r="J23">
+      <c r="I23" s="3"/>
+      <c r="J23" s="8">
         <v>-3143.77</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="K23" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="7">
         <v>6</v>
       </c>
-      <c r="B24">
-        <v>-1097.3800000000001</v>
-      </c>
-      <c r="D24">
-        <v>-1095.8599999999999</v>
-      </c>
-      <c r="F24">
+      <c r="B24" s="8">
+        <v>-1097.38</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="8">
+        <v>-1095.86</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="8">
         <v>-1970.29</v>
       </c>
-      <c r="H24">
+      <c r="G24" s="3"/>
+      <c r="H24" s="8">
         <v>-2321.11</v>
       </c>
-      <c r="J24">
+      <c r="I24" s="3"/>
+      <c r="J24" s="8">
         <v>-3033.51</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="K24" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="7">
         <v>7</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="8">
         <v>-1454.07</v>
       </c>
-      <c r="D25">
+      <c r="C25" s="3"/>
+      <c r="D25" s="8">
         <v>-989.17</v>
       </c>
-      <c r="F25">
+      <c r="E25" s="3"/>
+      <c r="F25" s="8">
         <v>-1978.18</v>
       </c>
-      <c r="H25">
-        <v>-2322.9499999999998</v>
-      </c>
-      <c r="J25">
+      <c r="G25" s="3"/>
+      <c r="H25" s="8">
+        <v>-2322.95</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="8">
         <v>-2887.26</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="K25" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="7">
         <v>8</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="8">
         <v>-1367.94</v>
       </c>
-      <c r="D26">
+      <c r="C26" s="3"/>
+      <c r="D26" s="8">
         <v>-956.05</v>
       </c>
-      <c r="F26">
+      <c r="E26" s="3"/>
+      <c r="F26" s="8">
         <v>-1744.08</v>
       </c>
-      <c r="H26">
+      <c r="G26" s="3"/>
+      <c r="H26" s="8">
         <v>-2122.75</v>
       </c>
-      <c r="J26">
+      <c r="I26" s="3"/>
+      <c r="J26" s="8">
         <v>-2802.44</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="K26" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="8">
         <v>9.81</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="8">
         <v>-1083.75</v>
       </c>
-      <c r="D27">
+      <c r="C27" s="3"/>
+      <c r="D27" s="8">
         <v>-876.27</v>
       </c>
-      <c r="F27">
+      <c r="E27" s="3"/>
+      <c r="F27" s="8">
         <v>-1693.95</v>
       </c>
-      <c r="H27">
+      <c r="G27" s="3"/>
+      <c r="H27" s="8">
         <v>-1670.31</v>
       </c>
-      <c r="J27">
+      <c r="I27" s="3"/>
+      <c r="J27" s="8">
         <v>-2494.41</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="K27" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="7">
         <v>11</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="8">
         <v>-900.08</v>
       </c>
-      <c r="D28">
+      <c r="C28" s="3"/>
+      <c r="D28" s="8">
         <v>-1054.97</v>
       </c>
-      <c r="F28">
+      <c r="E28" s="3"/>
+      <c r="F28" s="8">
         <v>-1379.57</v>
       </c>
-      <c r="H28">
+      <c r="G28" s="3"/>
+      <c r="H28" s="8">
         <v>-1487.6</v>
       </c>
-      <c r="J28">
-        <v>-2219.2800000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="I28" s="3"/>
+      <c r="J28" s="8">
+        <v>-2219.28</v>
+      </c>
+      <c r="K28" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="7">
         <v>12</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="8">
         <v>-656.49</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29">
+      <c r="C29" s="9"/>
+      <c r="D29" s="8">
         <v>-381.85</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29">
+      <c r="E29" s="9"/>
+      <c r="F29" s="8">
         <v>-474.31</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29">
+      <c r="G29" s="9"/>
+      <c r="H29" s="8">
         <v>-604.61</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29">
-        <v>-1148.9000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="I29" s="9"/>
+      <c r="J29" s="8">
+        <v>-1148.9</v>
+      </c>
+      <c r="K29" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="7">
         <v>13</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="8">
         <v>-1836.77</v>
       </c>
-      <c r="D30">
+      <c r="C30" s="3"/>
+      <c r="D30" s="8">
         <v>-371.25</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30">
+      <c r="E30" s="9"/>
+      <c r="F30" s="8">
         <v>-2042.86</v>
       </c>
-      <c r="H30">
-        <v>-2082.4899999999998</v>
-      </c>
-      <c r="J30">
+      <c r="G30" s="3"/>
+      <c r="H30" s="8">
+        <v>-2082.49</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="8">
         <v>-2088.69</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="K30" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="7">
         <v>14</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="8">
         <v>-2128.34</v>
       </c>
-      <c r="D31">
+      <c r="C31" s="3"/>
+      <c r="D31" s="8">
         <v>-496.19</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31">
+      <c r="E31" s="9"/>
+      <c r="F31" s="8">
         <v>-2217.58</v>
       </c>
-      <c r="H31">
+      <c r="G31" s="3"/>
+      <c r="H31" s="8">
         <v>-2230.9</v>
       </c>
-      <c r="J31">
+      <c r="I31" s="3"/>
+      <c r="J31" s="8">
         <v>-2456.84</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="K31" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="7">
         <v>15</v>
       </c>
-      <c r="B32">
-        <v>-2309.9499999999998</v>
-      </c>
-      <c r="D32">
+      <c r="B32" s="8">
+        <v>-2309.95</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="8">
         <v>-749.18</v>
       </c>
-      <c r="F32">
-        <v>-2322.7800000000002</v>
-      </c>
-      <c r="H32">
+      <c r="E32" s="3"/>
+      <c r="F32" s="8">
+        <v>-2322.78</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="8">
         <v>-2386.71</v>
       </c>
-      <c r="J32">
+      <c r="I32" s="3"/>
+      <c r="J32" s="8">
         <v>-2604.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="K32" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="7">
         <v>1</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="8">
         <v>-2953.59</v>
       </c>
-      <c r="D35">
+      <c r="C35" s="3"/>
+      <c r="D35" s="8">
         <v>-1725.68</v>
       </c>
-      <c r="F35">
+      <c r="E35" s="3"/>
+      <c r="F35" s="8">
         <v>-1587.76</v>
       </c>
-      <c r="H35">
-        <v>-1099.0899999999999</v>
-      </c>
-      <c r="J35">
+      <c r="G35" s="3"/>
+      <c r="H35" s="8">
+        <v>-1099.09</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="8">
         <v>-2679.17</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="K35" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="7">
         <v>2</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="8">
         <v>-2843.87</v>
       </c>
-      <c r="D36">
-        <v>-2235.7800000000002</v>
-      </c>
-      <c r="F36">
+      <c r="C36" s="3"/>
+      <c r="D36" s="8">
+        <v>-2235.78</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="8">
         <v>-1751.28</v>
       </c>
-      <c r="H36">
+      <c r="G36" s="3"/>
+      <c r="H36" s="8">
         <v>-1176.02</v>
       </c>
-      <c r="J36">
+      <c r="I36" s="3"/>
+      <c r="J36" s="8">
         <v>-2683.49</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="K36" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="7">
         <v>3</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="8">
         <v>-3150.84</v>
       </c>
-      <c r="D37">
-        <v>-2372.0300000000002</v>
-      </c>
-      <c r="F37">
+      <c r="C37" s="3"/>
+      <c r="D37" s="8">
+        <v>-2372.03</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="8">
         <v>-1778.31</v>
       </c>
-      <c r="H37">
-        <v>-1183.3900000000001</v>
-      </c>
-      <c r="J37">
+      <c r="G37" s="3"/>
+      <c r="H37" s="8">
+        <v>-1183.39</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="8">
         <v>-2566.71</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="K37" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="7">
         <v>4</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="8">
         <v>-3178.13</v>
       </c>
-      <c r="D38">
+      <c r="C38" s="3"/>
+      <c r="D38" s="8">
         <v>-2552.12</v>
       </c>
-      <c r="F38">
+      <c r="E38" s="3"/>
+      <c r="F38" s="8">
         <v>-1654.37</v>
       </c>
-      <c r="H38">
+      <c r="G38" s="3"/>
+      <c r="H38" s="8">
         <v>-1272.19</v>
       </c>
-      <c r="J38">
-        <v>-2432.7800000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="I38" s="3"/>
+      <c r="J38" s="8">
+        <v>-2432.78</v>
+      </c>
+      <c r="K38" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="7">
         <v>5</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="8">
         <v>-3123.5</v>
       </c>
-      <c r="D39">
+      <c r="C39" s="3"/>
+      <c r="D39" s="8">
         <v>-2385.94</v>
       </c>
-      <c r="F39">
+      <c r="E39" s="3"/>
+      <c r="F39" s="8">
         <v>-1644.63</v>
       </c>
-      <c r="H39">
+      <c r="G39" s="3"/>
+      <c r="H39" s="8">
         <v>-1264.21</v>
       </c>
-      <c r="J39">
+      <c r="I39" s="3"/>
+      <c r="J39" s="8">
         <v>-2491.29</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="K39" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="7">
         <v>6</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="8">
         <v>-3092.07</v>
       </c>
-      <c r="D40">
+      <c r="C40" s="3"/>
+      <c r="D40" s="8">
         <v>-2179.13</v>
       </c>
-      <c r="F40">
+      <c r="E40" s="3"/>
+      <c r="F40" s="8">
         <v>-1940.37</v>
       </c>
-      <c r="H40">
+      <c r="G40" s="3"/>
+      <c r="H40" s="8">
         <v>-1792.82</v>
       </c>
-      <c r="J40">
+      <c r="I40" s="3"/>
+      <c r="J40" s="8">
         <v>-2330.14</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="K40" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="7">
         <v>7</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="8">
         <v>-2996.68</v>
       </c>
-      <c r="D41">
+      <c r="C41" s="3"/>
+      <c r="D41" s="8">
         <v>-1875.35</v>
       </c>
-      <c r="F41">
+      <c r="E41" s="3"/>
+      <c r="F41" s="8">
         <v>-1867.54</v>
       </c>
-      <c r="H41">
-        <v>-1201.3699999999999</v>
-      </c>
-      <c r="J41">
+      <c r="G41" s="3"/>
+      <c r="H41" s="8">
+        <v>-1201.37</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="8">
         <v>-2340.17</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="K41" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="7">
         <v>8</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="8">
         <v>-2867.55</v>
       </c>
-      <c r="D42">
+      <c r="C42" s="3"/>
+      <c r="D42" s="8">
         <v>-1874.97</v>
       </c>
-      <c r="F42">
+      <c r="E42" s="3"/>
+      <c r="F42" s="8">
         <v>-2003.76</v>
       </c>
-      <c r="H42">
+      <c r="G42" s="3"/>
+      <c r="H42" s="8">
         <v>-1090.77</v>
       </c>
-      <c r="J42">
-        <v>-2349.7399999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="I42" s="3"/>
+      <c r="J42" s="8">
+        <v>-2349.74</v>
+      </c>
+      <c r="K42" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="8">
         <v>9.81</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="8">
         <v>-2494.02</v>
       </c>
-      <c r="D43">
+      <c r="C43" s="3"/>
+      <c r="D43" s="8">
         <v>-1622.07</v>
       </c>
-      <c r="F43">
+      <c r="E43" s="3"/>
+      <c r="F43" s="8">
         <v>-1931.93</v>
       </c>
-      <c r="H43">
+      <c r="G43" s="3"/>
+      <c r="H43" s="8">
         <v>-1357.8</v>
       </c>
-      <c r="J43">
+      <c r="I43" s="3"/>
+      <c r="J43" s="8">
         <v>-1995.71</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="K43" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="7">
         <v>11</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="8">
         <v>-2328.46</v>
       </c>
-      <c r="D44">
+      <c r="C44" s="3"/>
+      <c r="D44" s="8">
         <v>-1460.86</v>
       </c>
-      <c r="F44">
+      <c r="E44" s="3"/>
+      <c r="F44" s="8">
         <v>-2079.08</v>
       </c>
-      <c r="H44">
+      <c r="G44" s="3"/>
+      <c r="H44" s="8">
         <v>-915.73</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44">
+      <c r="I44" s="9"/>
+      <c r="J44" s="8">
         <v>-1960.79</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="K44" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="7">
         <v>12</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="8">
         <v>-1856.48</v>
       </c>
-      <c r="D45">
+      <c r="C45" s="3"/>
+      <c r="D45" s="7">
         <v>-1268</v>
       </c>
-      <c r="F45">
-        <v>-1185.1099999999999</v>
-      </c>
-      <c r="H45">
+      <c r="E45" s="3"/>
+      <c r="F45" s="8">
+        <v>-1185.11</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="8">
         <v>-836.04</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45">
+      <c r="I45" s="9"/>
+      <c r="J45" s="8">
         <v>-1398.41</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="K45" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="7">
         <v>13</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="8">
         <v>-433.51</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46">
+      <c r="C46" s="9"/>
+      <c r="D46" s="8">
         <v>-613.99</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46">
+      <c r="E46" s="9"/>
+      <c r="F46" s="8">
         <v>-660.71</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46">
+      <c r="G46" s="9"/>
+      <c r="H46" s="8">
         <v>-890.8</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46">
+      <c r="I46" s="9"/>
+      <c r="J46" s="8">
         <v>-801.88</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="K46" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="7">
         <v>14</v>
       </c>
-      <c r="B47">
-        <v>-2088.5500000000002</v>
-      </c>
-      <c r="D47">
+      <c r="B47" s="8">
+        <v>-2088.55</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="8">
         <v>-1901.9</v>
       </c>
-      <c r="F47">
+      <c r="E47" s="3"/>
+      <c r="F47" s="8">
         <v>-1727.85</v>
       </c>
-      <c r="H47">
+      <c r="G47" s="3"/>
+      <c r="H47" s="8">
         <v>-2010.25</v>
       </c>
-      <c r="J47">
+      <c r="I47" s="3"/>
+      <c r="J47" s="8">
         <v>-2065.81</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="K47" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="7">
         <v>15</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="8">
         <v>-2305.87</v>
       </c>
-      <c r="D48">
-        <v>-2211.2399999999998</v>
-      </c>
-      <c r="F48">
-        <v>-2248.9699999999998</v>
-      </c>
-      <c r="H48">
-        <v>-2290.9499999999998</v>
-      </c>
-      <c r="J48">
+      <c r="C48" s="3"/>
+      <c r="D48" s="8">
+        <v>-2211.24</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="8">
+        <v>-2248.97</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="8">
+        <v>-2290.95</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="8">
         <v>-2392.88</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="K48" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="7">
         <v>1</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="8">
         <v>-2986.29</v>
       </c>
-      <c r="D51">
+      <c r="C51" s="3"/>
+      <c r="D51" s="8">
         <v>-2911.86</v>
       </c>
-      <c r="F51">
+      <c r="E51" s="3"/>
+      <c r="F51" s="8">
         <v>-3479.7</v>
       </c>
-      <c r="H51">
+      <c r="G51" s="3"/>
+      <c r="H51" s="8">
         <v>-3186.47</v>
       </c>
-      <c r="J51">
+      <c r="I51" s="3"/>
+      <c r="J51" s="8">
         <v>-1586.36</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="K51" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="7">
         <v>2</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="8">
         <v>-2931.07</v>
       </c>
-      <c r="D52">
+      <c r="C52" s="3"/>
+      <c r="D52" s="8">
         <v>-2842.52</v>
       </c>
-      <c r="F52">
+      <c r="E52" s="3"/>
+      <c r="F52" s="8">
         <v>-3282.65</v>
       </c>
-      <c r="H52">
+      <c r="G52" s="3"/>
+      <c r="H52" s="8">
         <v>-3105.54</v>
       </c>
-      <c r="J52">
+      <c r="I52" s="3"/>
+      <c r="J52" s="7">
         <v>-1713</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="K52" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="7">
         <v>3</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="8">
         <v>-2782.21</v>
       </c>
-      <c r="D53">
+      <c r="C53" s="3"/>
+      <c r="D53" s="8">
         <v>-2811.83</v>
       </c>
-      <c r="F53">
+      <c r="E53" s="3"/>
+      <c r="F53" s="8">
         <v>-3234.78</v>
       </c>
-      <c r="H53">
+      <c r="G53" s="3"/>
+      <c r="H53" s="8">
         <v>-2950.82</v>
       </c>
-      <c r="J53">
+      <c r="I53" s="3"/>
+      <c r="J53" s="8">
         <v>-1728.44</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="K53" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="7">
         <v>4</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="8">
         <v>-2883.42</v>
       </c>
-      <c r="D54">
+      <c r="C54" s="3"/>
+      <c r="D54" s="8">
         <v>-2327.13</v>
       </c>
-      <c r="F54">
+      <c r="E54" s="3"/>
+      <c r="F54" s="8">
         <v>-3066.8</v>
       </c>
-      <c r="H54">
+      <c r="G54" s="3"/>
+      <c r="H54" s="8">
         <v>-2903.68</v>
       </c>
-      <c r="J54">
+      <c r="I54" s="3"/>
+      <c r="J54" s="8">
         <v>-1929.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="K54" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="7">
         <v>5</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="8">
         <v>-2938.62</v>
       </c>
-      <c r="D55">
+      <c r="C55" s="3"/>
+      <c r="D55" s="8">
         <v>-3141.06</v>
       </c>
-      <c r="F55">
+      <c r="E55" s="3"/>
+      <c r="F55" s="7">
         <v>-2925</v>
       </c>
-      <c r="H55">
+      <c r="G55" s="3"/>
+      <c r="H55" s="8">
         <v>-3095.19</v>
       </c>
-      <c r="J55">
+      <c r="I55" s="3"/>
+      <c r="J55" s="8">
         <v>-1423.97</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="K55" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="A56" s="7">
         <v>6</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="8">
         <v>-2881.81</v>
       </c>
-      <c r="D56">
+      <c r="C56" s="3"/>
+      <c r="D56" s="8">
         <v>-3108.05</v>
       </c>
-      <c r="F56">
+      <c r="E56" s="3"/>
+      <c r="F56" s="8">
         <v>-2652.34</v>
       </c>
-      <c r="H56">
+      <c r="G56" s="3"/>
+      <c r="H56" s="8">
         <v>-3097.1</v>
       </c>
-      <c r="J56">
+      <c r="I56" s="3"/>
+      <c r="J56" s="8">
         <v>-1055.77</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="K56" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="7">
         <v>7</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="8">
         <v>-2662.27</v>
       </c>
-      <c r="D57">
+      <c r="C57" s="3"/>
+      <c r="D57" s="8">
         <v>-2968.84</v>
       </c>
-      <c r="F57">
+      <c r="E57" s="3"/>
+      <c r="F57" s="8">
         <v>-2495.16</v>
       </c>
-      <c r="H57">
+      <c r="G57" s="3"/>
+      <c r="H57" s="8">
         <v>-3053.92</v>
       </c>
-      <c r="J57">
-        <v>-1277.6199999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="I57" s="3"/>
+      <c r="J57" s="8">
+        <v>-1277.62</v>
+      </c>
+      <c r="K57" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="7">
         <v>8</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="8">
         <v>-2702.72</v>
       </c>
-      <c r="D58">
+      <c r="C58" s="3"/>
+      <c r="D58" s="8">
         <v>-2884.89</v>
       </c>
-      <c r="F58">
+      <c r="E58" s="3"/>
+      <c r="F58" s="8">
         <v>-2520.09</v>
       </c>
-      <c r="H58">
+      <c r="G58" s="3"/>
+      <c r="H58" s="8">
         <v>-2917.43</v>
       </c>
-      <c r="J58">
+      <c r="I58" s="3"/>
+      <c r="J58" s="8">
         <v>-1478.25</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="K58" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="8">
         <v>9.81</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="8">
         <v>-2547.25</v>
       </c>
-      <c r="D59">
+      <c r="C59" s="3"/>
+      <c r="D59" s="8">
         <v>-2682.69</v>
       </c>
-      <c r="F59">
+      <c r="E59" s="3"/>
+      <c r="F59" s="8">
         <v>-2271.88</v>
       </c>
-      <c r="H59">
+      <c r="G59" s="3"/>
+      <c r="H59" s="8">
         <v>-2740.55</v>
       </c>
-      <c r="J59">
+      <c r="I59" s="3"/>
+      <c r="J59" s="8">
         <v>-911.97</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="K59" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="A60" s="7">
         <v>11</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="8">
         <v>-2379.81</v>
       </c>
-      <c r="D60">
+      <c r="C60" s="3"/>
+      <c r="D60" s="8">
         <v>-2489.85</v>
       </c>
-      <c r="F60">
-        <v>-2087.7800000000002</v>
-      </c>
-      <c r="H60">
+      <c r="E60" s="3"/>
+      <c r="F60" s="8">
+        <v>-2087.78</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="8">
         <v>-2234.16</v>
       </c>
-      <c r="J60">
+      <c r="I60" s="3"/>
+      <c r="J60" s="8">
         <v>-910.47</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="K60" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="7">
         <v>12</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="8">
         <v>-2051.21</v>
       </c>
-      <c r="D61">
-        <v>-2265.1799999999998</v>
-      </c>
-      <c r="F61">
+      <c r="C61" s="3"/>
+      <c r="D61" s="8">
+        <v>-2265.18</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="8">
         <v>-1999.15</v>
       </c>
-      <c r="H61">
-        <v>-2210.5300000000002</v>
-      </c>
-      <c r="J61">
+      <c r="G61" s="3"/>
+      <c r="H61" s="8">
+        <v>-2210.53</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="8">
         <v>-973.84</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="K61" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="7">
         <v>13</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="8">
         <v>-1919.04</v>
       </c>
-      <c r="D62">
+      <c r="C62" s="3"/>
+      <c r="D62" s="8">
         <v>-1996.11</v>
       </c>
-      <c r="F62">
+      <c r="E62" s="3"/>
+      <c r="F62" s="8">
         <v>-1546.45</v>
       </c>
-      <c r="H62">
+      <c r="G62" s="3"/>
+      <c r="H62" s="8">
         <v>-1045.07</v>
       </c>
-      <c r="J62">
+      <c r="I62" s="3"/>
+      <c r="J62" s="8">
         <v>-461.13</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="K62" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="7">
         <v>14</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="8">
         <v>-472.89</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63">
+      <c r="C63" s="9"/>
+      <c r="D63" s="8">
         <v>-475.81</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63">
+      <c r="E63" s="9"/>
+      <c r="F63" s="8">
         <v>-1024.28</v>
       </c>
-      <c r="H63">
+      <c r="G63" s="3"/>
+      <c r="H63" s="8">
         <v>-783.91</v>
       </c>
-      <c r="I63" s="3"/>
-      <c r="J63">
+      <c r="I63" s="9"/>
+      <c r="J63" s="8">
         <v>-378.64</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="K63" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="A64" s="7">
         <v>15</v>
       </c>
-      <c r="B64">
-        <v>-2131.2199999999998</v>
-      </c>
-      <c r="D64">
-        <v>-2243.7199999999998</v>
-      </c>
-      <c r="F64">
+      <c r="B64" s="8">
+        <v>-2131.22</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="8">
+        <v>-2243.72</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="8">
         <v>-2203.38</v>
       </c>
-      <c r="H64">
+      <c r="G64" s="3"/>
+      <c r="H64" s="8">
         <v>-2185.06</v>
       </c>
-      <c r="J64">
+      <c r="I64" s="3"/>
+      <c r="J64" s="8">
         <v>-1034.49</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K64" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+      <c r="B65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J66" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="7">
         <v>1</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="8">
         <v>-2383.06</v>
       </c>
-      <c r="D67">
+      <c r="C67" s="3"/>
+      <c r="D67" s="7">
         <v>-3390</v>
       </c>
-      <c r="F67">
+      <c r="E67" s="3"/>
+      <c r="F67" s="8">
         <v>-3638.67</v>
       </c>
-      <c r="H67">
+      <c r="G67" s="3"/>
+      <c r="H67" s="8">
         <v>-2029.95</v>
       </c>
-      <c r="J67">
+      <c r="I67" s="3"/>
+      <c r="J67" s="8">
         <v>-3674.43</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="K67" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="7">
         <v>2</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="8">
         <v>-2459.9</v>
       </c>
-      <c r="D68">
+      <c r="C68" s="3"/>
+      <c r="D68" s="8">
         <v>-3222.1</v>
       </c>
-      <c r="F68">
+      <c r="E68" s="3"/>
+      <c r="F68" s="8">
         <v>-3657.18</v>
       </c>
-      <c r="H68">
+      <c r="G68" s="3"/>
+      <c r="H68" s="8">
         <v>-1987.5</v>
       </c>
-      <c r="J68">
+      <c r="I68" s="3"/>
+      <c r="J68" s="8">
         <v>-3654.56</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="K68" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="7">
         <v>3</v>
       </c>
-      <c r="B69">
-        <v>-2054.9699999999998</v>
-      </c>
-      <c r="D69">
+      <c r="B69" s="8">
+        <v>-2054.97</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="8">
         <v>-3187.77</v>
       </c>
-      <c r="F69">
+      <c r="E69" s="3"/>
+      <c r="F69" s="8">
         <v>-3628.26</v>
       </c>
-      <c r="H69">
+      <c r="G69" s="3"/>
+      <c r="H69" s="8">
         <v>-2255.08</v>
       </c>
-      <c r="J69">
+      <c r="I69" s="3"/>
+      <c r="J69" s="8">
         <v>-3510.37</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="K69" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="A70" s="7">
         <v>4</v>
       </c>
-      <c r="B70">
-        <v>-2544.0500000000002</v>
-      </c>
-      <c r="D70">
+      <c r="B70" s="8">
+        <v>-2544.05</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="8">
         <v>-3162.58</v>
       </c>
-      <c r="F70">
+      <c r="E70" s="3"/>
+      <c r="F70" s="8">
         <v>-3463.49</v>
       </c>
-      <c r="H70">
-        <v>-2408.7399999999998</v>
-      </c>
-      <c r="J70">
+      <c r="G70" s="3"/>
+      <c r="H70" s="8">
+        <v>-2408.74</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="8">
         <v>-3378.29</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="K70" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="7">
         <v>5</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="8">
         <v>-2765.52</v>
       </c>
-      <c r="D71">
+      <c r="C71" s="3"/>
+      <c r="D71" s="8">
         <v>-3088.1</v>
       </c>
-      <c r="F71">
+      <c r="E71" s="3"/>
+      <c r="F71" s="8">
         <v>-3430.72</v>
       </c>
-      <c r="H71">
+      <c r="G71" s="3"/>
+      <c r="H71" s="8">
         <v>-2635.45</v>
       </c>
-      <c r="J71">
+      <c r="I71" s="3"/>
+      <c r="J71" s="8">
         <v>-3467.56</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="K71" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="A72" s="7">
         <v>6</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="8">
         <v>-2656.63</v>
       </c>
-      <c r="D72">
+      <c r="C72" s="3"/>
+      <c r="D72" s="8">
         <v>-3014.14</v>
       </c>
-      <c r="F72">
+      <c r="E72" s="3"/>
+      <c r="F72" s="8">
         <v>-3445.43</v>
       </c>
-      <c r="H72">
-        <v>-2426.3200000000002</v>
-      </c>
-      <c r="J72">
+      <c r="G72" s="3"/>
+      <c r="H72" s="8">
+        <v>-2426.32</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="8">
         <v>-3409.37</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="K72" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="7">
         <v>7</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="8">
         <v>-2861.24</v>
       </c>
-      <c r="D73">
+      <c r="C73" s="3"/>
+      <c r="D73" s="8">
         <v>-2843.45</v>
       </c>
-      <c r="F73">
+      <c r="E73" s="3"/>
+      <c r="F73" s="8">
         <v>-3306.54</v>
       </c>
-      <c r="H73">
+      <c r="G73" s="3"/>
+      <c r="H73" s="8">
         <v>-2662.93</v>
       </c>
-      <c r="J73">
+      <c r="I73" s="3"/>
+      <c r="J73" s="8">
         <v>-3279.37</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="K73" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="A74" s="7">
         <v>8</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="8">
         <v>-2745.5</v>
       </c>
-      <c r="D74">
+      <c r="C74" s="3"/>
+      <c r="D74" s="8">
         <v>-2712.95</v>
       </c>
-      <c r="F74">
+      <c r="E74" s="3"/>
+      <c r="F74" s="8">
         <v>-3229.8</v>
       </c>
-      <c r="H74">
-        <v>-2477.8000000000002</v>
-      </c>
-      <c r="J74">
+      <c r="G74" s="3"/>
+      <c r="H74" s="8">
+        <v>-2477.8</v>
+      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="8">
         <v>-3192.9</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="K74" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="8">
         <v>9.81</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="8">
         <v>-2666.83</v>
       </c>
-      <c r="D75">
+      <c r="C75" s="3"/>
+      <c r="D75" s="8">
         <v>-2551.11</v>
       </c>
-      <c r="F75">
+      <c r="E75" s="3"/>
+      <c r="F75" s="8">
         <v>-2957.65</v>
       </c>
-      <c r="H75">
-        <v>-2336.7600000000002</v>
-      </c>
-      <c r="J75">
+      <c r="G75" s="3"/>
+      <c r="H75" s="8">
+        <v>-2336.76</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="8">
         <v>-2954.59</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="K75" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="7">
         <v>11</v>
       </c>
-      <c r="B76">
-        <v>-2619.7800000000002</v>
-      </c>
-      <c r="D76">
-        <v>-2329.1799999999998</v>
-      </c>
-      <c r="F76">
+      <c r="B76" s="8">
+        <v>-2619.78</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="8">
+        <v>-2329.18</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="8">
         <v>-2841.73</v>
       </c>
-      <c r="H76">
-        <v>-2333.7600000000002</v>
-      </c>
-      <c r="J76">
+      <c r="G76" s="3"/>
+      <c r="H76" s="8">
+        <v>-2333.76</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="8">
         <v>-2788.08</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="K76" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="7">
         <v>12</v>
       </c>
-      <c r="B77">
-        <v>-2426.1799999999998</v>
-      </c>
-      <c r="D77">
+      <c r="B77" s="8">
+        <v>-2426.18</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="8">
         <v>-2162.59</v>
       </c>
-      <c r="F77">
-        <v>-2610.0300000000002</v>
-      </c>
-      <c r="H77">
+      <c r="E77" s="3"/>
+      <c r="F77" s="8">
+        <v>-2610.03</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="8">
         <v>-2067.66</v>
       </c>
-      <c r="J77">
+      <c r="I77" s="3"/>
+      <c r="J77" s="8">
         <v>-2645.75</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="K77" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+      <c r="A78" s="7">
         <v>13</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="8">
         <v>-2309.59</v>
       </c>
-      <c r="D78">
+      <c r="C78" s="3"/>
+      <c r="D78" s="8">
         <v>-2202.71</v>
       </c>
-      <c r="F78">
+      <c r="E78" s="3"/>
+      <c r="F78" s="8">
         <v>-2416.02</v>
       </c>
-      <c r="H78">
+      <c r="G78" s="3"/>
+      <c r="H78" s="8">
         <v>-2192.39</v>
       </c>
-      <c r="J78">
+      <c r="I78" s="3"/>
+      <c r="J78" s="8">
         <v>-2459.77</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="K78" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="A79" s="7">
         <v>14</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="8">
         <v>-2109.6</v>
       </c>
-      <c r="D79">
+      <c r="C79" s="3"/>
+      <c r="D79" s="8">
         <v>-1348.28</v>
       </c>
-      <c r="F79">
+      <c r="E79" s="3"/>
+      <c r="F79" s="8">
         <v>-2050.08</v>
       </c>
-      <c r="H79">
+      <c r="G79" s="3"/>
+      <c r="H79" s="8">
         <v>-1907.12</v>
       </c>
-      <c r="J79">
+      <c r="I79" s="3"/>
+      <c r="J79" s="8">
         <v>-2238.83</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="K79" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+      <c r="A80" s="7">
         <v>15</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="8">
         <v>-1122.01</v>
       </c>
-      <c r="D80">
+      <c r="C80" s="3"/>
+      <c r="D80" s="8">
         <v>-564.04</v>
       </c>
-      <c r="E80" s="3"/>
-      <c r="F80">
+      <c r="E80" s="9"/>
+      <c r="F80" s="8">
         <v>-725.59</v>
       </c>
-      <c r="G80" s="3"/>
-      <c r="H80">
+      <c r="G80" s="9"/>
+      <c r="H80" s="8">
         <v>-467.93</v>
       </c>
-      <c r="I80" s="3"/>
-      <c r="J80">
+      <c r="I80" s="9"/>
+      <c r="J80" s="8">
         <v>-1283.49</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="K80" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+      <c r="A81" s="7">
         <v>16</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="8">
         <v>-2400.61</v>
       </c>
-      <c r="D81">
-        <v>-2384.5700000000002</v>
-      </c>
-      <c r="F81">
-        <v>-2256.7199999999998</v>
-      </c>
-      <c r="H81">
+      <c r="C81" s="3"/>
+      <c r="D81" s="8">
+        <v>-2384.57</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="8">
+        <v>-2256.72</v>
+      </c>
+      <c r="G81" s="3"/>
+      <c r="H81" s="8">
         <v>-1396.93</v>
       </c>
-      <c r="J81">
+      <c r="I81" s="3"/>
+      <c r="J81" s="8">
         <v>-2307.29</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="K81" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+      <c r="A82" s="7">
         <v>17</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="8">
         <v>-2635.12</v>
       </c>
-      <c r="D82">
+      <c r="C82" s="3"/>
+      <c r="D82" s="8">
         <v>-2592.39</v>
       </c>
-      <c r="F82">
+      <c r="E82" s="3"/>
+      <c r="F82" s="8">
         <v>-2459.34</v>
       </c>
-      <c r="H82">
+      <c r="G82" s="3"/>
+      <c r="H82" s="8">
         <v>-2338.19</v>
       </c>
-      <c r="J82">
+      <c r="I82" s="3"/>
+      <c r="J82" s="8">
         <v>-2531.63</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K82" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="B83" s="2"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+      <c r="A84" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="B84" s="2"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+      <c r="A85" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="B85" s="2"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+      <c r="A86" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="B86" s="2"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+      <c r="A87" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+      <c r="A88" s="7"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+      <c r="A89" s="7"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+      <c r="A90" s="7"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+      <c r="A91" s="7"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+      <c r="A92" s="7"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+      <c r="A94" s="7"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+      <c r="A95" s="7"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+      <c r="A97" s="7"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+      <c r="A98" s="7"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+      <c r="A99" s="7"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+      <c r="A100" s="7"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+      <c r="A101" s="7"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+      <c r="A102" s="7"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+      <c r="A103" s="7"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/pendulum/part_obs_pendulum/excel_sheets/part_obs_grav.xlsx
+++ b/pendulum/part_obs_pendulum/excel_sheets/part_obs_grav.xlsx
@@ -1,66 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="9,81"/>
+    <sheet name="9,81" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>ind</t>
-  </si>
-  <si>
-    <t>add(ang_vel(max(y3, y2), y1, atan(conditional(y1, y3), y1), x2), y2)</t>
-  </si>
-  <si>
-    <t>ang_vel(y1, y2, x1, protectedDiv(ang_vel(add(max(y1, x1), sub(x2, x3)), x1, y3, x3), limit(y1, x3, limit(y1, x1, ang_vel(x3, x1, x3, x2)))))</t>
-  </si>
-  <si>
-    <t>ang_vel(cos(y1), cos(max(y3, y2)), acos(conditional(x1, acos(conditional(y3, max(limit(add(x1, x2), tan(y1), x3), y1)), tan(y3))), tan(protectedDiv(x2, max(y1, x3)))), x2)</t>
-  </si>
-  <si>
-    <t>protectedDiv(asin(y2, y1), sub(asin(sub(asin(y2, y1), x1), asin(x3, x3)), x1))</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -98,45 +78,107 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -424,371 +466,441 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="12.57642857142857" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="12.57642857142857" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="12.57642857142857" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
+    <col width="12.57642857142857" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
+    <col width="12.57642857142857" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
+    <col width="12.57642857142857" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
+    <col width="12.57642857142857" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
+    <col width="12.57642857142857" bestFit="1" customWidth="1" style="8" min="8" max="8"/>
+    <col width="12.57642857142857" bestFit="1" customWidth="1" style="8" min="9" max="9"/>
+    <col width="12.57642857142857" bestFit="1" customWidth="1" style="8" min="10" max="10"/>
+    <col width="12.57642857142857" bestFit="1" customWidth="1" style="8" min="11" max="11"/>
+    <col width="12.57642857142857" bestFit="1" customWidth="1" style="8" min="12" max="12"/>
+    <col width="12.57642857142857" bestFit="1" customWidth="1" style="8" min="13" max="13"/>
+    <col width="12.57642857142857" bestFit="1" customWidth="1" style="8" min="14" max="14"/>
+    <col width="12.57642857142857" bestFit="1" customWidth="1" style="8" min="15" max="15"/>
+    <col width="12.57642857142857" bestFit="1" customWidth="1" style="8" min="16" max="16"/>
+    <col width="12.57642857142857" bestFit="1" customWidth="1" style="8" min="17" max="17"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ind</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="3" t="n">
         <v>9.81</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="2" t="n">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>add(ang_vel(max(y3, y2), y1, atan(conditional(y1, y3), y1), x2), y2)</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="n">
         <v>-463.21</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="5" t="n">
         <v>-419.48</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="5" t="n">
         <v>-609.21</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="5" t="n">
         <v>-743.98</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="5" t="n">
         <v>-805.89</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="5" t="n">
         <v>-838.2</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="5" t="n">
         <v>-680.35</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="5" t="n">
         <v>-547.05</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="5" t="n">
         <v>-182.67</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="5" t="n">
         <v>-320.77</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="5" t="n">
         <v>-1007.57</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="5" t="n">
         <v>-1226.14</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="5" t="n">
         <v>-1367.16</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="5" t="n">
         <v>-1454.15</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="5" t="n">
         <v>-1538.31</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="5" t="n">
         <v>-1598.59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>ang_vel(y1, y2, x1, protectedDiv(ang_vel(add(max(y1, x1), sub(x2, x3)), x1, y3, x3), limit(y1, x3, limit(y1, x1, ang_vel(x3, x1, x3, x2)))))</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="n">
         <v>-319.94</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="5" t="n">
         <v>-358.25</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="6" t="n">
         <v>-330</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="5" t="n">
         <v>-363.21</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="5" t="n">
         <v>-291.03</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="5" t="n">
         <v>-135.59</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="5" t="n">
         <v>-151.33</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="5" t="n">
         <v>-147.62</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="5" t="n">
         <v>-161.64</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="5" t="n">
         <v>-182.27</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="5" t="n">
         <v>-263.24</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="5" t="n">
         <v>-1075.54</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="5" t="n">
         <v>-1294.92</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="5" t="n">
         <v>-1366.35</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="5" t="n">
         <v>-1343.57</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="5" t="n">
         <v>-1502.35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>ang_vel(cos(y1), cos(max(y3, y2)), acos(conditional(x1, acos(conditional(y3, max(limit(add(x1, x2), tan(y1), x3), y1)), tan(y3))), tan(protectedDiv(x2, max(y1, x3)))), x2)</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>-1258.41</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="5" t="n">
         <v>-1292.37</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="5" t="n">
         <v>-1353.34</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="5" t="n">
         <v>-1343.44</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="5" t="n">
         <v>-1333.96</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="5" t="n">
         <v>-1400.41</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="5" t="n">
         <v>-1452.3</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="5" t="n">
         <v>-1515.42</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="5" t="n">
         <v>-1519.42</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="5" t="n">
         <v>-1661.77</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="5" t="n">
         <v>-1664.65</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="5" t="n">
         <v>-1707.31</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="5" t="n">
         <v>-1751.62</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="5" t="n">
         <v>-1767.76</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="5" t="n">
         <v>-1802.07</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="5" t="n">
         <v>-1820.72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>ang_vel(cos(y1), cos(max(y3, y2)), acos(conditional(x1, acos(conditional(y3, max(limit(add(x1, x2), tan(y1), x3), y1)), tan(y3))), tan(protectedDiv(x2, max(y1, x3)))), x2)</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n">
         <v>-139.87</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="5" t="n">
         <v>-693.35</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="5" t="n">
         <v>-963.3</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="5" t="n">
         <v>-998.98</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="5" t="n">
         <v>-889.35</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="5" t="n">
         <v>-825.73</v>
       </c>
-      <c r="H5" s="5">
-        <v>-632.68</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="H5" s="5" t="n">
+        <v>-632.6799999999999</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>-388.75</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="5" t="n">
         <v>-274.97</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="5" t="n">
         <v>-255.58</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="5" t="n">
         <v>-864.03</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="5" t="n">
         <v>-1172.65</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="5" t="n">
         <v>-1279.15</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="5" t="n">
         <v>-1402.21</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="5" t="n">
         <v>-1472.21</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="5" t="n">
         <v>-1552.12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>protectedDiv(asin(y2, y1), sub(asin(sub(asin(y2, y1), x1), asin(x3, x3)), x1))</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n">
         <v>-87.69</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="5" t="n">
         <v>-182.53</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="5" t="n">
         <v>-131.19</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="5" t="n">
         <v>-130.01</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="5" t="n">
         <v>-104.15</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="5" t="n">
         <v>-120.45</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="5" t="n">
         <v>-147.45</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="5" t="n">
         <v>-156.63</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="5" t="n">
         <v>-182.33</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="5" t="n">
         <v>-237.27</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="5" t="n">
         <v>-325.44</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="5" t="n">
         <v>-917.59</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="5" t="n">
         <v>-1235.08</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="5" t="n">
         <v>-1279.82</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="5" t="n">
         <v>-1376.62</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="5" t="n">
         <v>-1507.18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="7" t="n"/>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+      <c r="H7" s="6" t="n"/>
+      <c r="I7" s="5" t="n"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="5" t="n"/>
+      <c r="L7" s="5" t="n"/>
+      <c r="M7" s="5" t="n"/>
+      <c r="N7" s="5" t="n"/>
+      <c r="O7" s="5" t="n"/>
+      <c r="P7" s="5" t="n"/>
+      <c r="Q7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ang_vel(y1, y2, x1, protectedDiv(ang_vel(add(max(y1, x1), sub(x2, x3)), x1, y3, x3), limit(y1, x3, limit(y1, x1, ang_vel(x3, x1, x3, x2)))))</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-77.75</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-150.63</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-129.91</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-132.98</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-59.88</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-61.99</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-51.13</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-61.7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-53.7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-49.06</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-91.81999999999999</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-374.74</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-409.1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-449.64</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-515.3099999999999</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-517.47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pendulum/part_obs_pendulum/excel_sheets/part_obs_grav.xlsx
+++ b/pendulum/part_obs_pendulum/excel_sheets/part_obs_grav.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/Work Info/Research Assistant/deap_experiments/pendulum/part_obs_pendulum/excel_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD620A0-645B-FD4F-962E-99ADA2238686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B369A986-C00D-B54D-977B-C45BFD083D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9,81" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Ind</t>
   </si>
@@ -114,6 +127,24 @@
   <si>
     <t>limit(tan(protectedDiv(add(y2, x3), x1)), ang_vel(y3, y2, max(acos(y1, x1), sub(x3, limit(y3, y2, x3))), x3), acos(protectedDiv(add(x1, x1), max(x3, ang_vel(x2, x2, x1, y1))), protectedDiv(acos(add(sin(x1), protectedDiv(x1, sin(asin(x1, y1)))), y2), x3)))</t>
   </si>
+  <si>
+    <t>g=15</t>
+  </si>
+  <si>
+    <t>g=14</t>
+  </si>
+  <si>
+    <t>g=13</t>
+  </si>
+  <si>
+    <t>g=12</t>
+  </si>
+  <si>
+    <t>g=11</t>
+  </si>
+  <si>
+    <t>g=9.81</t>
+  </si>
 </sst>
 </file>
 
@@ -197,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -210,6 +241,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -225,6 +259,1767 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Individual</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Fitness Tested at Different Gravity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9,81'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g=15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'9,81'!$B$34:$Q$34</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.00">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9,81'!$B$35:$Q$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-3659.0419999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3620.4840000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3491.1019999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3457.3199999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3519.1600000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3438.8919999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3332.3679999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3236.8399999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3004.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2848.1460000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2678.8480000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2479.1040000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2141.2820000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1427.8720000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2202.0700000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2509.5320000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B3EC-3143-ABAA-4B999C2CFF1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9,81'!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g=14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'9,81'!$B$34:$Q$34</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.00">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9,81'!$B$36:$Q$36</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-1394.952</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1604.4180000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1712.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1811.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2008.4979999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2205.7419999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2654.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2612.1940000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2433.0360000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2293.4960000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2107.1819999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1676.2579999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-777.75400000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1923.9779999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2238.7820000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2375.4300000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B3EC-3143-ABAA-4B999C2CFF1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9,81'!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g=13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'9,81'!$B$34:$Q$34</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.00">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9,81'!$B$37:$Q$37</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-2258.018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2252.596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2476.3839999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2634.694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2621.7359999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2532.2080000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2576.2460000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2487.232</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2243.576</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2070.6800000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1922.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1497.7660000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-806.13599999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2217.4219999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2458.4399999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2600.4839999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B3EC-3143-ABAA-4B999C2CFF1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9,81'!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g=12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'9,81'!$B$34:$Q$34</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.00">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9,81'!$B$38:$Q$38</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-1882.7060000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2169.902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2197.8419999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2176.0720000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2133.9379999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2148.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2177.5239999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1924.1560000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1707.4360000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1533.5579999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-908.87200000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1860.4720000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2041.8919999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2441.402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2592.2300000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2739.7260000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B3EC-3143-ABAA-4B999C2CFF1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9,81'!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g=11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'9,81'!$B$34:$Q$34</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.00">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9,81'!$B$39:$Q$39</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-2037.2280000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1990.836</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2011.7360000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1923.364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2035.5100000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1895.4720000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2030.848</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1960.184</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1640.4099999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1123.508</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1370.24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1938.0319999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2390.9960000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2553.4679999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2693.2079999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2751.3679999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B3EC-3143-ABAA-4B999C2CFF1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9,81'!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g=9.81</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'9,81'!$B$34:$Q$34</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.00">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9,81'!$B$40:$Q$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-753.33799999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-881.42400000000021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-796.74199999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-846.59199999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-996.06999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1085.962</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1169.8480000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1028.5279999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-587.548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-933.92600000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1392.2080000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1782.846</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2283.7460000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2422.9459999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2559.81</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2672.348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B3EC-3143-ABAA-4B999C2CFF1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1465946752"/>
+        <c:axId val="1466633984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1465946752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1466633984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1466633984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1465946752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB194C1C-7DC3-8B73-19C2-66B6B2BE142D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,10 +2310,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -532,52 +2327,52 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="10">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="10">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="10">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="10">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="10">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="10">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="10">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="10">
         <v>8</v>
       </c>
       <c r="J1" s="2">
         <v>9.81</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="10">
         <v>11</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="10">
         <v>12</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="10">
         <v>13</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="10">
         <v>14</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="10">
         <v>15</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="10">
         <v>16</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="10">
         <v>17</v>
       </c>
       <c r="R1" s="1"/>
@@ -2172,7 +3967,791 @@
         <v>-2578.7399999999998</v>
       </c>
     </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
+      <c r="C34" s="10">
+        <v>2</v>
+      </c>
+      <c r="D34" s="10">
+        <v>3</v>
+      </c>
+      <c r="E34" s="10">
+        <v>4</v>
+      </c>
+      <c r="F34" s="10">
+        <v>5</v>
+      </c>
+      <c r="G34" s="10">
+        <v>6</v>
+      </c>
+      <c r="H34" s="10">
+        <v>7</v>
+      </c>
+      <c r="I34" s="10">
+        <v>8</v>
+      </c>
+      <c r="J34" s="2">
+        <v>9.81</v>
+      </c>
+      <c r="K34" s="10">
+        <v>11</v>
+      </c>
+      <c r="L34" s="10">
+        <v>12</v>
+      </c>
+      <c r="M34" s="10">
+        <v>13</v>
+      </c>
+      <c r="N34" s="10">
+        <v>14</v>
+      </c>
+      <c r="O34" s="10">
+        <v>15</v>
+      </c>
+      <c r="P34" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" ref="B35:Q35" si="0">AVERAGE(B27:B31)</f>
+        <v>-3659.0419999999999</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>-3620.4840000000004</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>-3491.1019999999999</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>-3457.3199999999997</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="0"/>
+        <v>-3519.1600000000008</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="0"/>
+        <v>-3438.8919999999998</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="0"/>
+        <v>-3332.3679999999999</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="0"/>
+        <v>-3236.8399999999997</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="0"/>
+        <v>-3004.98</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="0"/>
+        <v>-2848.1460000000002</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" si="0"/>
+        <v>-2678.8480000000004</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="0"/>
+        <v>-2479.1040000000003</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="0"/>
+        <v>-2141.2820000000002</v>
+      </c>
+      <c r="O35" s="2">
+        <f t="shared" si="0"/>
+        <v>-1427.8720000000001</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="0"/>
+        <v>-2202.0700000000002</v>
+      </c>
+      <c r="Q35" s="2">
+        <f t="shared" si="0"/>
+        <v>-2509.5320000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" ref="B36:Q36" si="1">AVERAGE(B22:B26)</f>
+        <v>-1394.952</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="1"/>
+        <v>-1604.4180000000001</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="1"/>
+        <v>-1712.5</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="1"/>
+        <v>-1811.98</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="1"/>
+        <v>-2008.4979999999996</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="1"/>
+        <v>-2205.7419999999997</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="1"/>
+        <v>-2654.68</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="1"/>
+        <v>-2612.1940000000004</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="1"/>
+        <v>-2433.0360000000001</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="1"/>
+        <v>-2293.4960000000001</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="1"/>
+        <v>-2107.1819999999998</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="1"/>
+        <v>-1676.2579999999998</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="1"/>
+        <v>-777.75400000000002</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="1"/>
+        <v>-1923.9779999999998</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="1"/>
+        <v>-2238.7820000000002</v>
+      </c>
+      <c r="Q36" s="2">
+        <f t="shared" si="1"/>
+        <v>-2375.4300000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" ref="B37:Q37" si="2">AVERAGE(B17:B21)</f>
+        <v>-2258.018</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="2"/>
+        <v>-2252.596</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="2"/>
+        <v>-2476.3839999999996</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="2"/>
+        <v>-2634.694</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="2"/>
+        <v>-2621.7359999999999</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="2"/>
+        <v>-2532.2080000000001</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="2"/>
+        <v>-2576.2460000000001</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="2"/>
+        <v>-2487.232</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="2"/>
+        <v>-2243.576</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="2"/>
+        <v>-2070.6800000000003</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="2"/>
+        <v>-1922.33</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="2"/>
+        <v>-1497.7660000000001</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="2"/>
+        <v>-806.13599999999997</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="2"/>
+        <v>-2217.4219999999996</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="2"/>
+        <v>-2458.4399999999996</v>
+      </c>
+      <c r="Q37" s="2">
+        <f t="shared" si="2"/>
+        <v>-2600.4839999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" ref="B38:Q38" si="3">AVERAGE(B12:B16)</f>
+        <v>-1882.7060000000001</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="3"/>
+        <v>-2169.902</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="3"/>
+        <v>-2197.8419999999996</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="3"/>
+        <v>-2176.0720000000001</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="3"/>
+        <v>-2133.9379999999996</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="3"/>
+        <v>-2148.14</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="3"/>
+        <v>-2177.5239999999999</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="3"/>
+        <v>-1924.1560000000002</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="3"/>
+        <v>-1707.4360000000001</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="3"/>
+        <v>-1533.5579999999998</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="3"/>
+        <v>-908.87200000000007</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="3"/>
+        <v>-1860.4720000000002</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="3"/>
+        <v>-2041.8919999999998</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="3"/>
+        <v>-2441.402</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" si="3"/>
+        <v>-2592.2300000000005</v>
+      </c>
+      <c r="Q38" s="2">
+        <f t="shared" si="3"/>
+        <v>-2739.7260000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" ref="B39:Q39" si="4">AVERAGE(B7:B11)</f>
+        <v>-2037.2280000000003</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="4"/>
+        <v>-1990.836</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="4"/>
+        <v>-2011.7360000000001</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="4"/>
+        <v>-1923.364</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="4"/>
+        <v>-2035.5100000000002</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="4"/>
+        <v>-1895.4720000000002</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="4"/>
+        <v>-2030.848</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="4"/>
+        <v>-1960.184</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="4"/>
+        <v>-1640.4099999999999</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="4"/>
+        <v>-1123.508</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="4"/>
+        <v>-1370.24</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="4"/>
+        <v>-1938.0319999999999</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="4"/>
+        <v>-2390.9960000000001</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="4"/>
+        <v>-2553.4679999999998</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="4"/>
+        <v>-2693.2079999999996</v>
+      </c>
+      <c r="Q39" s="2">
+        <f t="shared" si="4"/>
+        <v>-2751.3679999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" ref="B40:Q40" si="5">AVERAGE(B2:B6)</f>
+        <v>-753.33799999999997</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="5"/>
+        <v>-881.42400000000021</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="5"/>
+        <v>-796.74199999999996</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="5"/>
+        <v>-846.59199999999998</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="5"/>
+        <v>-996.06999999999994</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="5"/>
+        <v>-1085.962</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="5"/>
+        <v>-1169.8480000000002</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="5"/>
+        <v>-1028.5279999999998</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="5"/>
+        <v>-587.548</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="5"/>
+        <v>-933.92600000000004</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="5"/>
+        <v>-1392.2080000000001</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="5"/>
+        <v>-1782.846</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="5"/>
+        <v>-2283.7460000000001</v>
+      </c>
+      <c r="O40" s="2">
+        <f t="shared" si="5"/>
+        <v>-2422.9459999999999</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" si="5"/>
+        <v>-2559.81</v>
+      </c>
+      <c r="Q40" s="2">
+        <f t="shared" si="5"/>
+        <v>-2672.348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>1</v>
+      </c>
+      <c r="B47" s="3">
+        <v>-123.32</v>
+      </c>
+      <c r="C47" s="3">
+        <v>-286.02</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-221.35</v>
+      </c>
+      <c r="E47" s="3">
+        <v>-227.56</v>
+      </c>
+      <c r="F47" s="3">
+        <v>-189.67</v>
+      </c>
+      <c r="G47" s="3">
+        <v>-229.25</v>
+      </c>
+      <c r="H47" s="3">
+        <v>-246.03</v>
+      </c>
+      <c r="I47" s="3">
+        <v>-265.39999999999998</v>
+      </c>
+      <c r="J47" s="8">
+        <v>-271.56</v>
+      </c>
+      <c r="K47" s="3">
+        <v>-356.13</v>
+      </c>
+      <c r="L47" s="3">
+        <v>-576.62</v>
+      </c>
+      <c r="M47" s="3">
+        <v>-1415.42</v>
+      </c>
+      <c r="N47" s="3">
+        <v>-2016.63</v>
+      </c>
+      <c r="O47" s="3">
+        <v>-2225.41</v>
+      </c>
+      <c r="P47" s="3">
+        <v>-2326.2199999999998</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>-2513.44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>2</v>
+      </c>
+      <c r="B48" s="4">
+        <v>-1278.03</v>
+      </c>
+      <c r="C48" s="4">
+        <v>-1348.21</v>
+      </c>
+      <c r="D48" s="4">
+        <v>-1114.01</v>
+      </c>
+      <c r="E48" s="4">
+        <v>-1276.02</v>
+      </c>
+      <c r="F48" s="4">
+        <v>-1515.88</v>
+      </c>
+      <c r="G48" s="4">
+        <v>-1378.76</v>
+      </c>
+      <c r="H48" s="4">
+        <v>-1384.07</v>
+      </c>
+      <c r="I48" s="4">
+        <v>-1434.08</v>
+      </c>
+      <c r="J48" s="4">
+        <v>-1196.3499999999999</v>
+      </c>
+      <c r="K48" s="8">
+        <v>-684.04</v>
+      </c>
+      <c r="L48" s="4">
+        <v>-631.85</v>
+      </c>
+      <c r="M48" s="4">
+        <v>-1163.45</v>
+      </c>
+      <c r="N48" s="4">
+        <v>-2220.02</v>
+      </c>
+      <c r="O48" s="4">
+        <v>-2492.98</v>
+      </c>
+      <c r="P48" s="4">
+        <v>-2635.16</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>-2629.86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>3</v>
+      </c>
+      <c r="B49" s="5">
+        <v>-1026.52</v>
+      </c>
+      <c r="C49" s="5">
+        <v>-1811.68</v>
+      </c>
+      <c r="D49" s="5">
+        <v>-2126.75</v>
+      </c>
+      <c r="E49" s="5">
+        <v>-1781.28</v>
+      </c>
+      <c r="F49" s="5">
+        <v>-1663.07</v>
+      </c>
+      <c r="G49" s="5">
+        <v>-1538.4</v>
+      </c>
+      <c r="H49" s="5">
+        <v>-1435.59</v>
+      </c>
+      <c r="I49" s="5">
+        <v>-825.52</v>
+      </c>
+      <c r="J49" s="5">
+        <v>-647.84</v>
+      </c>
+      <c r="K49" s="5">
+        <v>-592.51</v>
+      </c>
+      <c r="L49" s="8">
+        <v>-385.23</v>
+      </c>
+      <c r="M49" s="5">
+        <v>-1391.41</v>
+      </c>
+      <c r="N49" s="5">
+        <v>-2438.34</v>
+      </c>
+      <c r="O49" s="5">
+        <v>-2616.83</v>
+      </c>
+      <c r="P49" s="5">
+        <v>-2679.29</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>-2776.15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
+        <v>4</v>
+      </c>
+      <c r="B50" s="9">
+        <v>-806.07</v>
+      </c>
+      <c r="C50" s="9">
+        <v>-957.57</v>
+      </c>
+      <c r="D50" s="9">
+        <v>-1051.77</v>
+      </c>
+      <c r="E50" s="9">
+        <v>-1171.83</v>
+      </c>
+      <c r="F50" s="9">
+        <v>-1232.92</v>
+      </c>
+      <c r="G50" s="9">
+        <v>-899.75</v>
+      </c>
+      <c r="H50" s="9">
+        <v>-1255.1600000000001</v>
+      </c>
+      <c r="I50" s="9">
+        <v>-1105.0899999999999</v>
+      </c>
+      <c r="J50" s="9">
+        <v>-1036.0899999999999</v>
+      </c>
+      <c r="K50" s="9">
+        <v>-619.42999999999995</v>
+      </c>
+      <c r="L50" s="9">
+        <v>-459</v>
+      </c>
+      <c r="M50" s="8">
+        <v>-529.42999999999995</v>
+      </c>
+      <c r="N50" s="9">
+        <v>-779.13</v>
+      </c>
+      <c r="O50" s="9">
+        <v>-2037.19</v>
+      </c>
+      <c r="P50" s="9">
+        <v>-2433.86</v>
+      </c>
+      <c r="Q50" s="9">
+        <v>-2509.63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>5</v>
+      </c>
+      <c r="B51" s="6">
+        <v>-1233.8499999999999</v>
+      </c>
+      <c r="C51" s="6">
+        <v>-1472.98</v>
+      </c>
+      <c r="D51" s="6">
+        <v>-1707.44</v>
+      </c>
+      <c r="E51" s="6">
+        <v>-1901.49</v>
+      </c>
+      <c r="F51" s="6">
+        <v>-1378.54</v>
+      </c>
+      <c r="G51" s="6">
+        <v>-1592.59</v>
+      </c>
+      <c r="H51" s="6">
+        <v>-2144.39</v>
+      </c>
+      <c r="I51" s="6">
+        <v>-1992.52</v>
+      </c>
+      <c r="J51" s="6">
+        <v>-1780.22</v>
+      </c>
+      <c r="K51" s="6">
+        <v>-1829.06</v>
+      </c>
+      <c r="L51" s="6">
+        <v>-1687.4</v>
+      </c>
+      <c r="M51" s="6">
+        <v>-1295.76</v>
+      </c>
+      <c r="N51" s="8">
+        <v>-486.62</v>
+      </c>
+      <c r="O51" s="6">
+        <v>-1742.3</v>
+      </c>
+      <c r="P51" s="6">
+        <v>-2048.88</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>-2282.86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <v>6</v>
+      </c>
+      <c r="B52" s="7">
+        <v>-3668.77</v>
+      </c>
+      <c r="C52" s="7">
+        <v>-3664.3</v>
+      </c>
+      <c r="D52" s="7">
+        <v>-3630.15</v>
+      </c>
+      <c r="E52" s="7">
+        <v>-3541.52</v>
+      </c>
+      <c r="F52" s="7">
+        <v>-3545.11</v>
+      </c>
+      <c r="G52" s="7">
+        <v>-3496.37</v>
+      </c>
+      <c r="H52" s="7">
+        <v>-3298.24</v>
+      </c>
+      <c r="I52" s="7">
+        <v>-3283.02</v>
+      </c>
+      <c r="J52" s="7">
+        <v>-3013.68</v>
+      </c>
+      <c r="K52" s="7">
+        <v>-2859.76</v>
+      </c>
+      <c r="L52" s="7">
+        <v>-2687.26</v>
+      </c>
+      <c r="M52" s="7">
+        <v>-2503.16</v>
+      </c>
+      <c r="N52" s="7">
+        <v>-1791.22</v>
+      </c>
+      <c r="O52" s="8">
+        <v>-1080.33</v>
+      </c>
+      <c r="P52" s="7">
+        <v>-1476.65</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>-2251.8000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/pendulum/part_obs_pendulum/excel_sheets/part_obs_grav.xlsx
+++ b/pendulum/part_obs_pendulum/excel_sheets/part_obs_grav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/Work Info/Research Assistant/deap_experiments/pendulum/part_obs_pendulum/excel_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B369A986-C00D-B54D-977B-C45BFD083D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F38450-6703-8544-89C0-A281EFAE5E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9,81" sheetId="1" r:id="rId1"/>
@@ -259,1767 +259,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Individual</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Fitness Tested at Different Gravity</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'9,81'!$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>g=15</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'9,81'!$B$34:$Q$34</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="#,##0.00">
-                  <c:v>9.81</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'9,81'!$B$35:$Q$35</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>-3659.0419999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3620.4840000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3491.1019999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3457.3199999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-3519.1600000000008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-3438.8919999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-3332.3679999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-3236.8399999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-3004.98</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2848.1460000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2678.8480000000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2479.1040000000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2141.2820000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-1427.8720000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2202.0700000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2509.5320000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B3EC-3143-ABAA-4B999C2CFF1E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'9,81'!$A$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>g=14</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'9,81'!$B$34:$Q$34</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="#,##0.00">
-                  <c:v>9.81</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'9,81'!$B$36:$Q$36</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>-1394.952</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1604.4180000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1712.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1811.98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2008.4979999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2205.7419999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2654.68</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2612.1940000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2433.0360000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2293.4960000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2107.1819999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1676.2579999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-777.75400000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-1923.9779999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2238.7820000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2375.4300000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B3EC-3143-ABAA-4B999C2CFF1E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'9,81'!$A$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>g=13</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'9,81'!$B$34:$Q$34</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="#,##0.00">
-                  <c:v>9.81</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'9,81'!$B$37:$Q$37</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>-2258.018</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2252.596</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2476.3839999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2634.694</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2621.7359999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2532.2080000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2576.2460000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2487.232</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2243.576</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2070.6800000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1922.33</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1497.7660000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-806.13599999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2217.4219999999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2458.4399999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2600.4839999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B3EC-3143-ABAA-4B999C2CFF1E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'9,81'!$A$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>g=12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'9,81'!$B$34:$Q$34</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="#,##0.00">
-                  <c:v>9.81</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'9,81'!$B$38:$Q$38</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>-1882.7060000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2169.902</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2197.8419999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2176.0720000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2133.9379999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2148.14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2177.5239999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1924.1560000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1707.4360000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1533.5579999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-908.87200000000007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1860.4720000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2041.8919999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2441.402</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2592.2300000000005</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2739.7260000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B3EC-3143-ABAA-4B999C2CFF1E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'9,81'!$A$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>g=11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'9,81'!$B$34:$Q$34</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="#,##0.00">
-                  <c:v>9.81</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'9,81'!$B$39:$Q$39</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>-2037.2280000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1990.836</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2011.7360000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1923.364</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2035.5100000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1895.4720000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2030.848</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1960.184</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1640.4099999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1123.508</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1370.24</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1938.0319999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2390.9960000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2553.4679999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2693.2079999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2751.3679999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B3EC-3143-ABAA-4B999C2CFF1E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'9,81'!$A$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>g=9.81</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'9,81'!$B$34:$Q$34</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="#,##0.00">
-                  <c:v>9.81</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'9,81'!$B$40:$Q$40</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>-753.33799999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-881.42400000000021</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-796.74199999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-846.59199999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-996.06999999999994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1085.962</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1169.8480000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1028.5279999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-587.548</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-933.92600000000004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1392.2080000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1782.846</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2283.7460000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2422.9459999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2559.81</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2672.348</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-B3EC-3143-ABAA-4B999C2CFF1E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1465946752"/>
-        <c:axId val="1466633984"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1465946752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1466633984"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1466633984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1465946752"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>170180</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB194C1C-7DC3-8B73-19C2-66B6B2BE142D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4752,6 +2991,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/pendulum/part_obs_pendulum/excel_sheets/part_obs_grav.xlsx
+++ b/pendulum/part_obs_pendulum/excel_sheets/part_obs_grav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/Work Info/Research Assistant/deap_experiments/pendulum/part_obs_pendulum/excel_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F38450-6703-8544-89C0-A281EFAE5E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E451E7-99B6-764E-BBBE-B452D9AAA288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9,81" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -244,6 +244,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -259,6 +260,1737 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9,81'!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g=15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'9,81'!$B$32:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.00">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9,81'!$B$33:$Q$33</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-3659.0419999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3620.4840000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3491.1019999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3457.3199999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3519.1600000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3438.8919999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3332.3679999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3236.8399999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3004.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2848.1460000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2678.8480000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2479.1040000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2141.2820000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1427.8720000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2202.0700000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2509.5320000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6FA0-5440-AD65-7C9683DF3ADE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9,81'!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g=14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'9,81'!$B$32:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.00">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9,81'!$B$34:$Q$34</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-1394.952</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1604.4180000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1712.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1811.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2008.4979999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2205.7419999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2654.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2612.1940000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2433.0360000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2293.4960000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2107.1819999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1676.2579999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-777.75400000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1923.9779999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2238.7820000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2375.4300000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6FA0-5440-AD65-7C9683DF3ADE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9,81'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g=13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'9,81'!$B$32:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.00">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9,81'!$B$35:$Q$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-2258.018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2252.596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2476.3839999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2634.694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2621.7359999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2532.2080000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2576.2460000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2487.232</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2243.576</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2070.6800000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1922.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1497.7660000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-806.13599999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2217.4219999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2458.4399999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2600.4839999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6FA0-5440-AD65-7C9683DF3ADE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9,81'!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g=12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'9,81'!$B$32:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.00">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9,81'!$B$36:$Q$36</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-1882.7060000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2169.902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2197.8419999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2176.0720000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2133.9379999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2148.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2177.5239999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1924.1560000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1707.4360000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1533.5579999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-908.87200000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1860.4720000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2041.8919999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2441.402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2592.2300000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2739.7260000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6FA0-5440-AD65-7C9683DF3ADE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9,81'!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g=11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'9,81'!$B$32:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.00">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9,81'!$B$37:$Q$37</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-2037.2280000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1990.836</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2011.7360000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1923.364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2035.5100000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1895.4720000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2030.848</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1960.184</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1640.4099999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1123.508</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1370.24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1938.0319999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2390.9960000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2553.4679999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2693.2079999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2751.3679999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6FA0-5440-AD65-7C9683DF3ADE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9,81'!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g=9.81</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'9,81'!$B$32:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.00">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9,81'!$B$38:$Q$38</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-753.33799999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-881.42400000000021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-796.74199999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-846.59199999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-996.06999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1085.962</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1169.8480000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1028.5279999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-587.548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-933.92600000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1392.2080000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1782.846</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2283.7460000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2422.9459999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2559.81</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2672.348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6FA0-5440-AD65-7C9683DF3ADE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="897417424"/>
+        <c:axId val="928648592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="897417424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928648592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="928648592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="897417424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>412749</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>334432</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C3FCFD-1DC2-6129-F9BA-C10D992363AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -551,8 +2283,8 @@
   </sheetPr>
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2206,790 +3938,589 @@
         <v>-2578.7399999999998</v>
       </c>
     </row>
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="10">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10">
+        <v>2</v>
+      </c>
+      <c r="D32" s="10">
+        <v>3</v>
+      </c>
+      <c r="E32" s="10">
+        <v>4</v>
+      </c>
+      <c r="F32" s="10">
+        <v>5</v>
+      </c>
+      <c r="G32" s="10">
+        <v>6</v>
+      </c>
+      <c r="H32" s="10">
+        <v>7</v>
+      </c>
+      <c r="I32" s="10">
+        <v>8</v>
+      </c>
+      <c r="J32" s="2">
+        <v>9.81</v>
+      </c>
+      <c r="K32" s="10">
+        <v>11</v>
+      </c>
+      <c r="L32" s="10">
+        <v>12</v>
+      </c>
+      <c r="M32" s="10">
+        <v>13</v>
+      </c>
+      <c r="N32" s="10">
+        <v>14</v>
+      </c>
+      <c r="O32" s="10">
+        <v>15</v>
+      </c>
+      <c r="P32" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <f>AVERAGE(B27:B31)</f>
+        <v>-3659.0419999999999</v>
+      </c>
+      <c r="C33" s="2">
+        <f>AVERAGE(C27:C31)</f>
+        <v>-3620.4840000000004</v>
+      </c>
+      <c r="D33" s="2">
+        <f>AVERAGE(D27:D31)</f>
+        <v>-3491.1019999999999</v>
+      </c>
+      <c r="E33" s="2">
+        <f>AVERAGE(E27:E31)</f>
+        <v>-3457.3199999999997</v>
+      </c>
+      <c r="F33" s="2">
+        <f>AVERAGE(F27:F31)</f>
+        <v>-3519.1600000000008</v>
+      </c>
+      <c r="G33" s="2">
+        <f>AVERAGE(G27:G31)</f>
+        <v>-3438.8919999999998</v>
+      </c>
+      <c r="H33" s="2">
+        <f>AVERAGE(H27:H31)</f>
+        <v>-3332.3679999999999</v>
+      </c>
+      <c r="I33" s="2">
+        <f>AVERAGE(I27:I31)</f>
+        <v>-3236.8399999999997</v>
+      </c>
+      <c r="J33" s="2">
+        <f>AVERAGE(J27:J31)</f>
+        <v>-3004.98</v>
+      </c>
+      <c r="K33" s="2">
+        <f>AVERAGE(K27:K31)</f>
+        <v>-2848.1460000000002</v>
+      </c>
+      <c r="L33" s="2">
+        <f>AVERAGE(L27:L31)</f>
+        <v>-2678.8480000000004</v>
+      </c>
+      <c r="M33" s="2">
+        <f>AVERAGE(M27:M31)</f>
+        <v>-2479.1040000000003</v>
+      </c>
+      <c r="N33" s="2">
+        <f>AVERAGE(N27:N31)</f>
+        <v>-2141.2820000000002</v>
+      </c>
+      <c r="O33" s="2">
+        <f>AVERAGE(O27:O31)</f>
+        <v>-1427.8720000000001</v>
+      </c>
+      <c r="P33" s="2">
+        <f>AVERAGE(P27:P31)</f>
+        <v>-2202.0700000000002</v>
+      </c>
+      <c r="Q33" s="2">
+        <f>AVERAGE(Q27:Q31)</f>
+        <v>-2509.5320000000002</v>
+      </c>
+    </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="10">
-        <v>1</v>
-      </c>
-      <c r="C34" s="10">
-        <v>2</v>
-      </c>
-      <c r="D34" s="10">
-        <v>3</v>
-      </c>
-      <c r="E34" s="10">
-        <v>4</v>
-      </c>
-      <c r="F34" s="10">
-        <v>5</v>
-      </c>
-      <c r="G34" s="10">
-        <v>6</v>
-      </c>
-      <c r="H34" s="10">
-        <v>7</v>
-      </c>
-      <c r="I34" s="10">
-        <v>8</v>
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <f>AVERAGE(B22:B26)</f>
+        <v>-1394.952</v>
+      </c>
+      <c r="C34" s="2">
+        <f>AVERAGE(C22:C26)</f>
+        <v>-1604.4180000000001</v>
+      </c>
+      <c r="D34" s="2">
+        <f>AVERAGE(D22:D26)</f>
+        <v>-1712.5</v>
+      </c>
+      <c r="E34" s="2">
+        <f>AVERAGE(E22:E26)</f>
+        <v>-1811.98</v>
+      </c>
+      <c r="F34" s="2">
+        <f>AVERAGE(F22:F26)</f>
+        <v>-2008.4979999999996</v>
+      </c>
+      <c r="G34" s="2">
+        <f>AVERAGE(G22:G26)</f>
+        <v>-2205.7419999999997</v>
+      </c>
+      <c r="H34" s="2">
+        <f>AVERAGE(H22:H26)</f>
+        <v>-2654.68</v>
+      </c>
+      <c r="I34" s="2">
+        <f>AVERAGE(I22:I26)</f>
+        <v>-2612.1940000000004</v>
       </c>
       <c r="J34" s="2">
-        <v>9.81</v>
-      </c>
-      <c r="K34" s="10">
-        <v>11</v>
-      </c>
-      <c r="L34" s="10">
-        <v>12</v>
-      </c>
-      <c r="M34" s="10">
-        <v>13</v>
-      </c>
-      <c r="N34" s="10">
-        <v>14</v>
-      </c>
-      <c r="O34" s="10">
-        <v>15</v>
-      </c>
-      <c r="P34" s="10">
-        <v>16</v>
-      </c>
-      <c r="Q34" s="10">
-        <v>17</v>
+        <f>AVERAGE(J22:J26)</f>
+        <v>-2433.0360000000001</v>
+      </c>
+      <c r="K34" s="2">
+        <f>AVERAGE(K22:K26)</f>
+        <v>-2293.4960000000001</v>
+      </c>
+      <c r="L34" s="2">
+        <f>AVERAGE(L22:L26)</f>
+        <v>-2107.1819999999998</v>
+      </c>
+      <c r="M34" s="2">
+        <f>AVERAGE(M22:M26)</f>
+        <v>-1676.2579999999998</v>
+      </c>
+      <c r="N34" s="2">
+        <f>AVERAGE(N22:N26)</f>
+        <v>-777.75400000000002</v>
+      </c>
+      <c r="O34" s="2">
+        <f>AVERAGE(O22:O26)</f>
+        <v>-1923.9779999999998</v>
+      </c>
+      <c r="P34" s="2">
+        <f>AVERAGE(P22:P26)</f>
+        <v>-2238.7820000000002</v>
+      </c>
+      <c r="Q34" s="2">
+        <f>AVERAGE(Q22:Q26)</f>
+        <v>-2375.4300000000003</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" ref="B35:Q35" si="0">AVERAGE(B27:B31)</f>
-        <v>-3659.0419999999999</v>
+        <f>AVERAGE(B17:B21)</f>
+        <v>-2258.018</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="0"/>
-        <v>-3620.4840000000004</v>
+        <f>AVERAGE(C17:C21)</f>
+        <v>-2252.596</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="0"/>
-        <v>-3491.1019999999999</v>
+        <f>AVERAGE(D17:D21)</f>
+        <v>-2476.3839999999996</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="0"/>
-        <v>-3457.3199999999997</v>
+        <f>AVERAGE(E17:E21)</f>
+        <v>-2634.694</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="0"/>
-        <v>-3519.1600000000008</v>
+        <f>AVERAGE(F17:F21)</f>
+        <v>-2621.7359999999999</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="0"/>
-        <v>-3438.8919999999998</v>
+        <f>AVERAGE(G17:G21)</f>
+        <v>-2532.2080000000001</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="0"/>
-        <v>-3332.3679999999999</v>
+        <f>AVERAGE(H17:H21)</f>
+        <v>-2576.2460000000001</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="0"/>
-        <v>-3236.8399999999997</v>
+        <f>AVERAGE(I17:I21)</f>
+        <v>-2487.232</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="0"/>
-        <v>-3004.98</v>
+        <f>AVERAGE(J17:J21)</f>
+        <v>-2243.576</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="0"/>
-        <v>-2848.1460000000002</v>
+        <f>AVERAGE(K17:K21)</f>
+        <v>-2070.6800000000003</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" si="0"/>
-        <v>-2678.8480000000004</v>
+        <f>AVERAGE(L17:L21)</f>
+        <v>-1922.33</v>
       </c>
       <c r="M35" s="2">
-        <f t="shared" si="0"/>
-        <v>-2479.1040000000003</v>
+        <f>AVERAGE(M17:M21)</f>
+        <v>-1497.7660000000001</v>
       </c>
       <c r="N35" s="2">
-        <f t="shared" si="0"/>
-        <v>-2141.2820000000002</v>
+        <f>AVERAGE(N17:N21)</f>
+        <v>-806.13599999999997</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="0"/>
-        <v>-1427.8720000000001</v>
+        <f>AVERAGE(O17:O21)</f>
+        <v>-2217.4219999999996</v>
       </c>
       <c r="P35" s="2">
-        <f t="shared" si="0"/>
-        <v>-2202.0700000000002</v>
+        <f>AVERAGE(P17:P21)</f>
+        <v>-2458.4399999999996</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" si="0"/>
-        <v>-2509.5320000000002</v>
+        <f>AVERAGE(Q17:Q21)</f>
+        <v>-2600.4839999999999</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:Q36" si="1">AVERAGE(B22:B26)</f>
-        <v>-1394.952</v>
+        <f>AVERAGE(B12:B16)</f>
+        <v>-1882.7060000000001</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="1"/>
-        <v>-1604.4180000000001</v>
+        <f>AVERAGE(C12:C16)</f>
+        <v>-2169.902</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="1"/>
-        <v>-1712.5</v>
+        <f>AVERAGE(D12:D16)</f>
+        <v>-2197.8419999999996</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="1"/>
-        <v>-1811.98</v>
+        <f>AVERAGE(E12:E16)</f>
+        <v>-2176.0720000000001</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="1"/>
-        <v>-2008.4979999999996</v>
+        <f>AVERAGE(F12:F16)</f>
+        <v>-2133.9379999999996</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="1"/>
-        <v>-2205.7419999999997</v>
+        <f>AVERAGE(G12:G16)</f>
+        <v>-2148.14</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="1"/>
-        <v>-2654.68</v>
+        <f>AVERAGE(H12:H16)</f>
+        <v>-2177.5239999999999</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="1"/>
-        <v>-2612.1940000000004</v>
+        <f>AVERAGE(I12:I16)</f>
+        <v>-1924.1560000000002</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="1"/>
-        <v>-2433.0360000000001</v>
+        <f>AVERAGE(J12:J16)</f>
+        <v>-1707.4360000000001</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="1"/>
-        <v>-2293.4960000000001</v>
+        <f>AVERAGE(K12:K16)</f>
+        <v>-1533.5579999999998</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" si="1"/>
-        <v>-2107.1819999999998</v>
+        <f>AVERAGE(L12:L16)</f>
+        <v>-908.87200000000007</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" si="1"/>
-        <v>-1676.2579999999998</v>
+        <f>AVERAGE(M12:M16)</f>
+        <v>-1860.4720000000002</v>
       </c>
       <c r="N36" s="2">
-        <f t="shared" si="1"/>
-        <v>-777.75400000000002</v>
+        <f>AVERAGE(N12:N16)</f>
+        <v>-2041.8919999999998</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" si="1"/>
-        <v>-1923.9779999999998</v>
+        <f>AVERAGE(O12:O16)</f>
+        <v>-2441.402</v>
       </c>
       <c r="P36" s="2">
-        <f t="shared" si="1"/>
-        <v>-2238.7820000000002</v>
+        <f>AVERAGE(P12:P16)</f>
+        <v>-2592.2300000000005</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="1"/>
-        <v>-2375.4300000000003</v>
+        <f>AVERAGE(Q12:Q16)</f>
+        <v>-2739.7260000000001</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" ref="B37:Q37" si="2">AVERAGE(B17:B21)</f>
-        <v>-2258.018</v>
+        <f>AVERAGE(B7:B11)</f>
+        <v>-2037.2280000000003</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="2"/>
-        <v>-2252.596</v>
+        <f>AVERAGE(C7:C11)</f>
+        <v>-1990.836</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="2"/>
-        <v>-2476.3839999999996</v>
+        <f>AVERAGE(D7:D11)</f>
+        <v>-2011.7360000000001</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="2"/>
-        <v>-2634.694</v>
+        <f>AVERAGE(E7:E11)</f>
+        <v>-1923.364</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="2"/>
-        <v>-2621.7359999999999</v>
+        <f>AVERAGE(F7:F11)</f>
+        <v>-2035.5100000000002</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="2"/>
-        <v>-2532.2080000000001</v>
+        <f>AVERAGE(G7:G11)</f>
+        <v>-1895.4720000000002</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="2"/>
-        <v>-2576.2460000000001</v>
+        <f>AVERAGE(H7:H11)</f>
+        <v>-2030.848</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="2"/>
-        <v>-2487.232</v>
+        <f>AVERAGE(I7:I11)</f>
+        <v>-1960.184</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="2"/>
-        <v>-2243.576</v>
+        <f>AVERAGE(J7:J11)</f>
+        <v>-1640.4099999999999</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="2"/>
-        <v>-2070.6800000000003</v>
+        <f>AVERAGE(K7:K11)</f>
+        <v>-1123.508</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" si="2"/>
-        <v>-1922.33</v>
+        <f>AVERAGE(L7:L11)</f>
+        <v>-1370.24</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="2"/>
-        <v>-1497.7660000000001</v>
+        <f>AVERAGE(M7:M11)</f>
+        <v>-1938.0319999999999</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" si="2"/>
-        <v>-806.13599999999997</v>
+        <f>AVERAGE(N7:N11)</f>
+        <v>-2390.9960000000001</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" si="2"/>
-        <v>-2217.4219999999996</v>
+        <f>AVERAGE(O7:O11)</f>
+        <v>-2553.4679999999998</v>
       </c>
       <c r="P37" s="2">
-        <f t="shared" si="2"/>
-        <v>-2458.4399999999996</v>
+        <f>AVERAGE(P7:P11)</f>
+        <v>-2693.2079999999996</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" si="2"/>
-        <v>-2600.4839999999999</v>
+        <f>AVERAGE(Q7:Q11)</f>
+        <v>-2751.3679999999999</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" ref="B38:Q38" si="3">AVERAGE(B12:B16)</f>
-        <v>-1882.7060000000001</v>
+        <f>AVERAGE(B2:B6)</f>
+        <v>-753.33799999999997</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="3"/>
-        <v>-2169.902</v>
+        <f>AVERAGE(C2:C6)</f>
+        <v>-881.42400000000021</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="3"/>
-        <v>-2197.8419999999996</v>
+        <f>AVERAGE(D2:D6)</f>
+        <v>-796.74199999999996</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="3"/>
-        <v>-2176.0720000000001</v>
+        <f>AVERAGE(E2:E6)</f>
+        <v>-846.59199999999998</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="3"/>
-        <v>-2133.9379999999996</v>
+        <f>AVERAGE(F2:F6)</f>
+        <v>-996.06999999999994</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="3"/>
-        <v>-2148.14</v>
+        <f>AVERAGE(G2:G6)</f>
+        <v>-1085.962</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="3"/>
-        <v>-2177.5239999999999</v>
+        <f>AVERAGE(H2:H6)</f>
+        <v>-1169.8480000000002</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="3"/>
-        <v>-1924.1560000000002</v>
+        <f>AVERAGE(I2:I6)</f>
+        <v>-1028.5279999999998</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="3"/>
-        <v>-1707.4360000000001</v>
+        <f>AVERAGE(J2:J6)</f>
+        <v>-587.548</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="3"/>
-        <v>-1533.5579999999998</v>
+        <f>AVERAGE(K2:K6)</f>
+        <v>-933.92600000000004</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" si="3"/>
-        <v>-908.87200000000007</v>
+        <f>AVERAGE(L2:L6)</f>
+        <v>-1392.2080000000001</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" si="3"/>
-        <v>-1860.4720000000002</v>
+        <f>AVERAGE(M2:M6)</f>
+        <v>-1782.846</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" si="3"/>
-        <v>-2041.8919999999998</v>
+        <f>AVERAGE(N2:N6)</f>
+        <v>-2283.7460000000001</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" si="3"/>
-        <v>-2441.402</v>
+        <f>AVERAGE(O2:O6)</f>
+        <v>-2422.9459999999999</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" si="3"/>
-        <v>-2592.2300000000005</v>
+        <f>AVERAGE(P2:P6)</f>
+        <v>-2559.81</v>
       </c>
       <c r="Q38" s="2">
-        <f t="shared" si="3"/>
-        <v>-2739.7260000000001</v>
+        <f>AVERAGE(Q2:Q6)</f>
+        <v>-2672.348</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="2">
-        <f t="shared" ref="B39:Q39" si="4">AVERAGE(B7:B11)</f>
-        <v>-2037.2280000000003</v>
-      </c>
-      <c r="C39" s="2">
-        <f t="shared" si="4"/>
-        <v>-1990.836</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="4"/>
-        <v>-2011.7360000000001</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="4"/>
-        <v>-1923.364</v>
-      </c>
-      <c r="F39" s="2">
-        <f t="shared" si="4"/>
-        <v>-2035.5100000000002</v>
-      </c>
-      <c r="G39" s="2">
-        <f t="shared" si="4"/>
-        <v>-1895.4720000000002</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="4"/>
-        <v>-2030.848</v>
-      </c>
-      <c r="I39" s="2">
-        <f t="shared" si="4"/>
-        <v>-1960.184</v>
-      </c>
-      <c r="J39" s="2">
-        <f t="shared" si="4"/>
-        <v>-1640.4099999999999</v>
-      </c>
-      <c r="K39" s="2">
-        <f t="shared" si="4"/>
-        <v>-1123.508</v>
-      </c>
-      <c r="L39" s="2">
-        <f t="shared" si="4"/>
-        <v>-1370.24</v>
-      </c>
-      <c r="M39" s="2">
-        <f t="shared" si="4"/>
-        <v>-1938.0319999999999</v>
-      </c>
-      <c r="N39" s="2">
-        <f t="shared" si="4"/>
-        <v>-2390.9960000000001</v>
-      </c>
-      <c r="O39" s="2">
-        <f t="shared" si="4"/>
-        <v>-2553.4679999999998</v>
-      </c>
-      <c r="P39" s="2">
-        <f t="shared" si="4"/>
-        <v>-2693.2079999999996</v>
-      </c>
-      <c r="Q39" s="2">
-        <f t="shared" si="4"/>
-        <v>-2751.3679999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="2">
-        <f t="shared" ref="B40:Q40" si="5">AVERAGE(B2:B6)</f>
-        <v>-753.33799999999997</v>
-      </c>
-      <c r="C40" s="2">
-        <f t="shared" si="5"/>
-        <v>-881.42400000000021</v>
-      </c>
-      <c r="D40" s="2">
-        <f t="shared" si="5"/>
-        <v>-796.74199999999996</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" si="5"/>
-        <v>-846.59199999999998</v>
-      </c>
-      <c r="F40" s="2">
-        <f t="shared" si="5"/>
-        <v>-996.06999999999994</v>
-      </c>
-      <c r="G40" s="2">
-        <f t="shared" si="5"/>
-        <v>-1085.962</v>
-      </c>
-      <c r="H40" s="2">
-        <f t="shared" si="5"/>
-        <v>-1169.8480000000002</v>
-      </c>
-      <c r="I40" s="2">
-        <f t="shared" si="5"/>
-        <v>-1028.5279999999998</v>
-      </c>
-      <c r="J40" s="2">
-        <f t="shared" si="5"/>
-        <v>-587.548</v>
-      </c>
-      <c r="K40" s="2">
-        <f t="shared" si="5"/>
-        <v>-933.92600000000004</v>
-      </c>
-      <c r="L40" s="2">
-        <f t="shared" si="5"/>
-        <v>-1392.2080000000001</v>
-      </c>
-      <c r="M40" s="2">
-        <f t="shared" si="5"/>
-        <v>-1782.846</v>
-      </c>
-      <c r="N40" s="2">
-        <f t="shared" si="5"/>
-        <v>-2283.7460000000001</v>
-      </c>
-      <c r="O40" s="2">
-        <f t="shared" si="5"/>
-        <v>-2422.9459999999999</v>
-      </c>
-      <c r="P40" s="2">
-        <f t="shared" si="5"/>
-        <v>-2559.81</v>
-      </c>
-      <c r="Q40" s="2">
-        <f t="shared" si="5"/>
-        <v>-2672.348</v>
-      </c>
-    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>1</v>
-      </c>
-      <c r="B47" s="3">
-        <v>-123.32</v>
-      </c>
-      <c r="C47" s="3">
-        <v>-286.02</v>
-      </c>
-      <c r="D47" s="3">
-        <v>-221.35</v>
-      </c>
-      <c r="E47" s="3">
-        <v>-227.56</v>
-      </c>
-      <c r="F47" s="3">
-        <v>-189.67</v>
-      </c>
-      <c r="G47" s="3">
-        <v>-229.25</v>
-      </c>
-      <c r="H47" s="3">
-        <v>-246.03</v>
-      </c>
-      <c r="I47" s="3">
-        <v>-265.39999999999998</v>
-      </c>
-      <c r="J47" s="8">
-        <v>-271.56</v>
-      </c>
-      <c r="K47" s="3">
-        <v>-356.13</v>
-      </c>
-      <c r="L47" s="3">
-        <v>-576.62</v>
-      </c>
-      <c r="M47" s="3">
-        <v>-1415.42</v>
-      </c>
-      <c r="N47" s="3">
-        <v>-2016.63</v>
-      </c>
-      <c r="O47" s="3">
-        <v>-2225.41</v>
-      </c>
-      <c r="P47" s="3">
-        <v>-2326.2199999999998</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>-2513.44</v>
-      </c>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>2</v>
-      </c>
-      <c r="B48" s="4">
-        <v>-1278.03</v>
-      </c>
-      <c r="C48" s="4">
-        <v>-1348.21</v>
-      </c>
-      <c r="D48" s="4">
-        <v>-1114.01</v>
-      </c>
-      <c r="E48" s="4">
-        <v>-1276.02</v>
-      </c>
-      <c r="F48" s="4">
-        <v>-1515.88</v>
-      </c>
-      <c r="G48" s="4">
-        <v>-1378.76</v>
-      </c>
-      <c r="H48" s="4">
-        <v>-1384.07</v>
-      </c>
-      <c r="I48" s="4">
-        <v>-1434.08</v>
-      </c>
-      <c r="J48" s="4">
-        <v>-1196.3499999999999</v>
-      </c>
-      <c r="K48" s="8">
-        <v>-684.04</v>
-      </c>
-      <c r="L48" s="4">
-        <v>-631.85</v>
-      </c>
-      <c r="M48" s="4">
-        <v>-1163.45</v>
-      </c>
-      <c r="N48" s="4">
-        <v>-2220.02</v>
-      </c>
-      <c r="O48" s="4">
-        <v>-2492.98</v>
-      </c>
-      <c r="P48" s="4">
-        <v>-2635.16</v>
-      </c>
-      <c r="Q48" s="4">
-        <v>-2629.86</v>
-      </c>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
     </row>
     <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
-        <v>3</v>
-      </c>
-      <c r="B49" s="5">
-        <v>-1026.52</v>
-      </c>
-      <c r="C49" s="5">
-        <v>-1811.68</v>
-      </c>
-      <c r="D49" s="5">
-        <v>-2126.75</v>
-      </c>
-      <c r="E49" s="5">
-        <v>-1781.28</v>
-      </c>
-      <c r="F49" s="5">
-        <v>-1663.07</v>
-      </c>
-      <c r="G49" s="5">
-        <v>-1538.4</v>
-      </c>
-      <c r="H49" s="5">
-        <v>-1435.59</v>
-      </c>
-      <c r="I49" s="5">
-        <v>-825.52</v>
-      </c>
-      <c r="J49" s="5">
-        <v>-647.84</v>
-      </c>
-      <c r="K49" s="5">
-        <v>-592.51</v>
-      </c>
-      <c r="L49" s="8">
-        <v>-385.23</v>
-      </c>
-      <c r="M49" s="5">
-        <v>-1391.41</v>
-      </c>
-      <c r="N49" s="5">
-        <v>-2438.34</v>
-      </c>
-      <c r="O49" s="5">
-        <v>-2616.83</v>
-      </c>
-      <c r="P49" s="5">
-        <v>-2679.29</v>
-      </c>
-      <c r="Q49" s="5">
-        <v>-2776.15</v>
-      </c>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
     </row>
     <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="9">
-        <v>4</v>
-      </c>
-      <c r="B50" s="9">
-        <v>-806.07</v>
-      </c>
-      <c r="C50" s="9">
-        <v>-957.57</v>
-      </c>
-      <c r="D50" s="9">
-        <v>-1051.77</v>
-      </c>
-      <c r="E50" s="9">
-        <v>-1171.83</v>
-      </c>
-      <c r="F50" s="9">
-        <v>-1232.92</v>
-      </c>
-      <c r="G50" s="9">
-        <v>-899.75</v>
-      </c>
-      <c r="H50" s="9">
-        <v>-1255.1600000000001</v>
-      </c>
-      <c r="I50" s="9">
-        <v>-1105.0899999999999</v>
-      </c>
-      <c r="J50" s="9">
-        <v>-1036.0899999999999</v>
-      </c>
-      <c r="K50" s="9">
-        <v>-619.42999999999995</v>
-      </c>
-      <c r="L50" s="9">
-        <v>-459</v>
-      </c>
-      <c r="M50" s="8">
-        <v>-529.42999999999995</v>
-      </c>
-      <c r="N50" s="9">
-        <v>-779.13</v>
-      </c>
-      <c r="O50" s="9">
-        <v>-2037.19</v>
-      </c>
-      <c r="P50" s="9">
-        <v>-2433.86</v>
-      </c>
-      <c r="Q50" s="9">
-        <v>-2509.63</v>
-      </c>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
     </row>
     <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
-        <v>5</v>
-      </c>
-      <c r="B51" s="6">
-        <v>-1233.8499999999999</v>
-      </c>
-      <c r="C51" s="6">
-        <v>-1472.98</v>
-      </c>
-      <c r="D51" s="6">
-        <v>-1707.44</v>
-      </c>
-      <c r="E51" s="6">
-        <v>-1901.49</v>
-      </c>
-      <c r="F51" s="6">
-        <v>-1378.54</v>
-      </c>
-      <c r="G51" s="6">
-        <v>-1592.59</v>
-      </c>
-      <c r="H51" s="6">
-        <v>-2144.39</v>
-      </c>
-      <c r="I51" s="6">
-        <v>-1992.52</v>
-      </c>
-      <c r="J51" s="6">
-        <v>-1780.22</v>
-      </c>
-      <c r="K51" s="6">
-        <v>-1829.06</v>
-      </c>
-      <c r="L51" s="6">
-        <v>-1687.4</v>
-      </c>
-      <c r="M51" s="6">
-        <v>-1295.76</v>
-      </c>
-      <c r="N51" s="8">
-        <v>-486.62</v>
-      </c>
-      <c r="O51" s="6">
-        <v>-1742.3</v>
-      </c>
-      <c r="P51" s="6">
-        <v>-2048.88</v>
-      </c>
-      <c r="Q51" s="6">
-        <v>-2282.86</v>
-      </c>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
     </row>
     <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
-        <v>6</v>
-      </c>
-      <c r="B52" s="7">
-        <v>-3668.77</v>
-      </c>
-      <c r="C52" s="7">
-        <v>-3664.3</v>
-      </c>
-      <c r="D52" s="7">
-        <v>-3630.15</v>
-      </c>
-      <c r="E52" s="7">
-        <v>-3541.52</v>
-      </c>
-      <c r="F52" s="7">
-        <v>-3545.11</v>
-      </c>
-      <c r="G52" s="7">
-        <v>-3496.37</v>
-      </c>
-      <c r="H52" s="7">
-        <v>-3298.24</v>
-      </c>
-      <c r="I52" s="7">
-        <v>-3283.02</v>
-      </c>
-      <c r="J52" s="7">
-        <v>-3013.68</v>
-      </c>
-      <c r="K52" s="7">
-        <v>-2859.76</v>
-      </c>
-      <c r="L52" s="7">
-        <v>-2687.26</v>
-      </c>
-      <c r="M52" s="7">
-        <v>-2503.16</v>
-      </c>
-      <c r="N52" s="7">
-        <v>-1791.22</v>
-      </c>
-      <c r="O52" s="8">
-        <v>-1080.33</v>
-      </c>
-      <c r="P52" s="7">
-        <v>-1476.65</v>
-      </c>
-      <c r="Q52" s="7">
-        <v>-2251.8000000000002</v>
-      </c>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>